--- a/Soil_data_Lorenzo_03_12_2024_enzymes.xlsx
+++ b/Soil_data_Lorenzo_03_12_2024_enzymes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BC3\HoliSoil\Lorenzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0564B04-0E48-4E03-A6BD-EB8F9303B3E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA91FE8-A06A-405D-9623-61FBC7352EF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1413,9 +1413,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,6 +1423,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1746,9 +1746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO14" sqref="AO14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S199" sqref="S199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1770,7 +1770,7 @@
     <col min="17" max="17" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.453125" style="9" bestFit="1" customWidth="1"/>
@@ -1853,7 +1853,7 @@
       <c r="S1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="U1" s="8" t="s">
@@ -1871,7 +1871,7 @@
       <c r="Y1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AA1" s="8" t="s">
@@ -1967,7 +1967,7 @@
       <c r="M2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>85</v>
       </c>
       <c r="O2" s="18">
@@ -1976,17 +1976,17 @@
       <c r="P2" s="18">
         <v>19.657585917854153</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="22">
         <v>66</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="22">
         <v>502.93378038558262</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="22">
         <v>77.64705882352942</v>
       </c>
-      <c r="T2" s="9">
-        <v>15.76</v>
+      <c r="T2" s="22">
+        <v>17.329999999999998</v>
       </c>
       <c r="U2" s="9">
         <v>0.56009999999999993</v>
@@ -2003,7 +2003,7 @@
       <c r="Y2" s="9">
         <v>5.43</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="Z2" s="20">
         <v>9.7137743127257187E-5</v>
       </c>
       <c r="AA2" s="10">
@@ -2100,7 +2100,7 @@
       <c r="M3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>85</v>
       </c>
       <c r="O3" s="18">
@@ -2109,17 +2109,17 @@
       <c r="P3" s="18">
         <v>19.657585917854153</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <v>66</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <v>502.93378038558262</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <v>77.64705882352942</v>
       </c>
-      <c r="T3" s="9">
-        <v>15.76</v>
+      <c r="T3" s="22">
+        <v>17.329999999999998</v>
       </c>
       <c r="U3" s="9">
         <v>0.56009999999999993</v>
@@ -2136,7 +2136,7 @@
       <c r="Y3" s="9">
         <v>5.45</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="20">
         <v>1.6882814187594493E-4</v>
       </c>
       <c r="AA3" s="10">
@@ -2236,25 +2236,25 @@
       <c r="M4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
         <v>0</v>
       </c>
       <c r="P4" s="18">
         <v>0</v>
       </c>
-      <c r="Q4" s="23">
-        <v>0</v>
-      </c>
-      <c r="R4" s="23">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
         <v>0</v>
       </c>
       <c r="U4" s="9">
@@ -2272,7 +2272,7 @@
       <c r="Y4" s="9">
         <v>6.83</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="Z4" s="20">
         <v>1.9685659328400076E-4</v>
       </c>
       <c r="AA4" s="10">
@@ -2372,25 +2372,25 @@
       <c r="M5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
         <v>0</v>
       </c>
       <c r="P5" s="18">
         <v>0</v>
       </c>
-      <c r="Q5" s="23">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
         <v>0</v>
       </c>
       <c r="U5" s="9">
@@ -2408,7 +2408,7 @@
       <c r="Y5" s="9">
         <v>7.07</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="Z5" s="20">
         <v>1.2323406690357397E-4</v>
       </c>
       <c r="AA5" s="10">
@@ -2508,25 +2508,25 @@
       <c r="M6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22">
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
         <v>0</v>
       </c>
       <c r="P6" s="18">
         <v>0</v>
       </c>
-      <c r="Q6" s="23">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23">
-        <v>0</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
+      <c r="Q6" s="22">
+        <v>0</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="22">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
         <v>0</v>
       </c>
       <c r="U6" s="9">
@@ -2544,7 +2544,7 @@
       <c r="Y6" s="9">
         <v>6.81</v>
       </c>
-      <c r="Z6" s="21">
+      <c r="Z6" s="20">
         <v>3.3861255452979103E-4</v>
       </c>
       <c r="AA6" s="10">
@@ -2644,25 +2644,25 @@
       <c r="M7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="22">
+      <c r="N7" s="21">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
         <v>0</v>
       </c>
       <c r="P7" s="18">
         <v>0</v>
       </c>
-      <c r="Q7" s="23">
-        <v>0</v>
-      </c>
-      <c r="R7" s="23">
-        <v>0</v>
-      </c>
-      <c r="S7" s="23">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
         <v>0</v>
       </c>
       <c r="U7" s="9">
@@ -2680,7 +2680,7 @@
       <c r="Y7" s="9">
         <v>6.65</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="Z7" s="20">
         <v>1.5353076472586713E-4</v>
       </c>
       <c r="AA7" s="10">
@@ -2780,7 +2780,7 @@
       <c r="M8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <v>89</v>
       </c>
       <c r="O8" s="18">
@@ -2789,17 +2789,17 @@
       <c r="P8" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <v>60</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>381.65511099802802</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T8" s="9">
-        <v>20.81</v>
+      <c r="T8" s="22">
+        <v>22.45</v>
       </c>
       <c r="U8" s="9">
         <v>0.85179999999999989</v>
@@ -2816,7 +2816,7 @@
       <c r="Y8" s="9">
         <v>5.52</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="20">
         <v>3.2341799518374639E-4</v>
       </c>
       <c r="AA8" s="10">
@@ -2916,7 +2916,7 @@
       <c r="M9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="21">
         <v>89</v>
       </c>
       <c r="O9" s="18">
@@ -2925,17 +2925,17 @@
       <c r="P9" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="22">
         <v>60</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T9" s="9">
-        <v>20.81</v>
+      <c r="T9" s="22">
+        <v>22.45</v>
       </c>
       <c r="U9" s="9">
         <v>0.85179999999999989</v>
@@ -2952,7 +2952,7 @@
       <c r="Y9" s="9">
         <v>5.59</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="20">
         <v>1.2500761190562874E-4</v>
       </c>
       <c r="AA9" s="10">
@@ -3052,7 +3052,7 @@
       <c r="M10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <v>89</v>
       </c>
       <c r="O10" s="18">
@@ -3061,17 +3061,17 @@
       <c r="P10" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <v>60</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T10" s="9">
-        <v>20.81</v>
+      <c r="T10" s="22">
+        <v>22.45</v>
       </c>
       <c r="U10" s="9">
         <v>0.82255</v>
@@ -3088,7 +3088,7 @@
       <c r="Y10" s="9">
         <v>6.49</v>
       </c>
-      <c r="Z10" s="21">
+      <c r="Z10" s="20">
         <v>7.5415482722357723E-4</v>
       </c>
       <c r="AA10" s="10">
@@ -3188,7 +3188,7 @@
       <c r="M11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <v>89</v>
       </c>
       <c r="O11" s="18">
@@ -3197,17 +3197,17 @@
       <c r="P11" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="22">
         <v>60</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T11" s="9">
-        <v>20.81</v>
+      <c r="T11" s="22">
+        <v>22.45</v>
       </c>
       <c r="U11" s="9">
         <v>0.82255</v>
@@ -3224,7 +3224,7 @@
       <c r="Y11" s="9">
         <v>6.58</v>
       </c>
-      <c r="Z11" s="21">
+      <c r="Z11" s="20">
         <v>2.8113005072594616E-4</v>
       </c>
       <c r="AA11" s="10">
@@ -3321,7 +3321,7 @@
       <c r="M12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <v>81</v>
       </c>
       <c r="O12" s="18">
@@ -3330,17 +3330,17 @@
       <c r="P12" s="18">
         <v>20.711952032496626</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="22">
         <v>52</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="22">
         <v>505.33026248019979</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="22">
         <v>64.197530864197532</v>
       </c>
-      <c r="T12" s="9">
-        <v>14.23</v>
+      <c r="T12" s="22">
+        <v>15.1</v>
       </c>
       <c r="U12" s="9">
         <v>0.85524999999999984</v>
@@ -3357,7 +3357,7 @@
       <c r="Y12" s="9">
         <v>6.48</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="20">
         <v>1.178069729300638E-4</v>
       </c>
       <c r="AA12" s="10">
@@ -3454,7 +3454,7 @@
       <c r="M13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <v>81</v>
       </c>
       <c r="O13" s="18">
@@ -3463,17 +3463,17 @@
       <c r="P13" s="18">
         <v>20.711952032496626</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="22">
         <v>52</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="22">
         <v>505.33026248019979</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="22">
         <v>64.197530864197532</v>
       </c>
-      <c r="T13" s="9">
-        <v>14.23</v>
+      <c r="T13" s="22">
+        <v>15.1</v>
       </c>
       <c r="U13" s="9">
         <v>0.85524999999999984</v>
@@ -3490,7 +3490,7 @@
       <c r="Y13" s="9">
         <v>6.22</v>
       </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="20">
         <v>1.2301399295245967E-3</v>
       </c>
       <c r="AA13" s="10">
@@ -3590,7 +3590,7 @@
       <c r="M14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <v>0</v>
       </c>
       <c r="O14" s="18">
@@ -3599,16 +3599,16 @@
       <c r="P14" s="18">
         <v>0</v>
       </c>
-      <c r="Q14" s="23">
-        <v>0</v>
-      </c>
-      <c r="R14" s="23">
-        <v>0</v>
-      </c>
-      <c r="S14" s="23">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+      <c r="S14" s="22">
+        <v>0</v>
+      </c>
+      <c r="T14" s="22">
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -3626,7 +3626,7 @@
       <c r="Y14" s="9">
         <v>6.41</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="20">
         <v>9.3999342969862572E-5</v>
       </c>
       <c r="AA14" s="10">
@@ -3726,7 +3726,7 @@
       <c r="M15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <v>0</v>
       </c>
       <c r="O15" s="18">
@@ -3735,16 +3735,16 @@
       <c r="P15" s="18">
         <v>0</v>
       </c>
-      <c r="Q15" s="23">
-        <v>0</v>
-      </c>
-      <c r="R15" s="23">
-        <v>0</v>
-      </c>
-      <c r="S15" s="23">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+      <c r="S15" s="22">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
         <v>0</v>
       </c>
       <c r="U15" s="9">
@@ -3762,7 +3762,7 @@
       <c r="Y15" s="9">
         <v>6.37</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="20">
         <v>2.0540783810170312E-4</v>
       </c>
       <c r="AA15" s="10">
@@ -3862,7 +3862,7 @@
       <c r="M16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <v>0</v>
       </c>
       <c r="O16" s="18">
@@ -3871,16 +3871,16 @@
       <c r="P16" s="18">
         <v>0</v>
       </c>
-      <c r="Q16" s="23">
-        <v>0</v>
-      </c>
-      <c r="R16" s="23">
-        <v>0</v>
-      </c>
-      <c r="S16" s="23">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+      <c r="S16" s="22">
+        <v>0</v>
+      </c>
+      <c r="T16" s="22">
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -3898,7 +3898,7 @@
       <c r="Y16" s="9">
         <v>6.43</v>
       </c>
-      <c r="Z16" s="21">
+      <c r="Z16" s="20">
         <v>1.2147836452620908E-4</v>
       </c>
       <c r="AA16" s="10">
@@ -3998,7 +3998,7 @@
       <c r="M17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <v>0</v>
       </c>
       <c r="O17" s="18">
@@ -4007,16 +4007,16 @@
       <c r="P17" s="18">
         <v>0</v>
       </c>
-      <c r="Q17" s="23">
-        <v>0</v>
-      </c>
-      <c r="R17" s="23">
-        <v>0</v>
-      </c>
-      <c r="S17" s="23">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
+      <c r="Q17" s="22">
+        <v>0</v>
+      </c>
+      <c r="R17" s="22">
+        <v>0</v>
+      </c>
+      <c r="S17" s="22">
+        <v>0</v>
+      </c>
+      <c r="T17" s="22">
         <v>0</v>
       </c>
       <c r="U17" s="9">
@@ -4034,7 +4034,7 @@
       <c r="Y17" s="9">
         <v>5.99</v>
       </c>
-      <c r="Z17" s="21">
+      <c r="Z17" s="20">
         <v>1.4510594762767308E-4</v>
       </c>
       <c r="AA17" s="10">
@@ -4134,7 +4134,7 @@
       <c r="M18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <v>32</v>
       </c>
       <c r="O18" s="18">
@@ -4143,16 +4143,16 @@
       <c r="P18" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="22">
         <v>31</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="22">
         <v>96.875</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="22">
         <v>20.53</v>
       </c>
       <c r="U18" s="9">
@@ -4170,7 +4170,7 @@
       <c r="Y18" s="9">
         <v>5.24</v>
       </c>
-      <c r="Z18" s="21">
+      <c r="Z18" s="20">
         <v>1.4937091438228694E-4</v>
       </c>
       <c r="AA18" s="10">
@@ -4270,7 +4270,7 @@
       <c r="M19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <v>32</v>
       </c>
       <c r="O19" s="18">
@@ -4279,16 +4279,16 @@
       <c r="P19" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="22">
         <v>31</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="22">
         <v>96.875</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="22">
         <v>20.53</v>
       </c>
       <c r="U19" s="9">
@@ -4306,7 +4306,7 @@
       <c r="Y19" s="9">
         <v>6.82</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="20">
         <v>1.5482558654319152E-4</v>
       </c>
       <c r="AA19" s="10">
@@ -4406,7 +4406,7 @@
       <c r="M20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <v>32</v>
       </c>
       <c r="O20" s="18">
@@ -4415,16 +4415,16 @@
       <c r="P20" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="22">
         <v>31</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="22">
         <v>96.875</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="22">
         <v>20.53</v>
       </c>
       <c r="U20" s="9">
@@ -4442,7 +4442,7 @@
       <c r="Y20" s="9">
         <v>6.82</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="20">
         <v>6.923357215774641E-4</v>
       </c>
       <c r="AA20" s="10">
@@ -4542,7 +4542,7 @@
       <c r="M21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="21">
         <v>32</v>
       </c>
       <c r="O21" s="18">
@@ -4551,16 +4551,16 @@
       <c r="P21" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="22">
         <v>31</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="22">
         <v>96.875</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="22">
         <v>20.53</v>
       </c>
       <c r="U21" s="9">
@@ -4578,7 +4578,7 @@
       <c r="Y21" s="9">
         <v>5.14</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="20">
         <v>3.3886745786599118E-4</v>
       </c>
       <c r="AA21" s="10">
@@ -4675,7 +4675,7 @@
       <c r="M22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <v>112</v>
       </c>
       <c r="O22" s="18">
@@ -4684,17 +4684,17 @@
       <c r="P22" s="18">
         <v>26.874558700148693</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="22">
         <v>92</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="22">
         <v>764.22750720616705</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="22">
         <v>82.142857142857139</v>
       </c>
-      <c r="T22" s="9">
-        <v>15.7</v>
+      <c r="T22" s="22">
+        <v>17.239999999999998</v>
       </c>
       <c r="U22" s="9">
         <v>0.73997500000000005</v>
@@ -4711,7 +4711,7 @@
       <c r="Y22" s="9">
         <v>6.68</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="20">
         <v>6.6370284672250164E-4</v>
       </c>
       <c r="AA22" s="10">
@@ -4808,7 +4808,7 @@
       <c r="M23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <v>112</v>
       </c>
       <c r="O23" s="18">
@@ -4817,17 +4817,17 @@
       <c r="P23" s="18">
         <v>26.874558700148693</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="22">
         <v>92</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="22">
         <v>764.22750720616705</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="22">
         <v>82.142857142857139</v>
       </c>
-      <c r="T23" s="9">
-        <v>15.7</v>
+      <c r="T23" s="22">
+        <v>17.239999999999998</v>
       </c>
       <c r="U23" s="9">
         <v>0.73997500000000005</v>
@@ -4844,7 +4844,7 @@
       <c r="Y23" s="9">
         <v>6.72</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="20">
         <v>3.3929453324181867E-4</v>
       </c>
       <c r="AA23" s="10">
@@ -4944,7 +4944,7 @@
       <c r="M24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="21">
         <v>0</v>
       </c>
       <c r="O24" s="18">
@@ -4953,16 +4953,16 @@
       <c r="P24" s="18">
         <v>0</v>
       </c>
-      <c r="Q24" s="23">
-        <v>0</v>
-      </c>
-      <c r="R24" s="23">
-        <v>0</v>
-      </c>
-      <c r="S24" s="23">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
+      <c r="Q24" s="22">
+        <v>0</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22">
+        <v>0</v>
+      </c>
+      <c r="T24" s="22">
         <v>0</v>
       </c>
       <c r="U24" s="9">
@@ -4980,7 +4980,7 @@
       <c r="Y24" s="9">
         <v>6.79</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="20">
         <v>2.2264412661419486E-4</v>
       </c>
       <c r="AA24" s="10">
@@ -5080,7 +5080,7 @@
       <c r="M25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="21">
         <v>0</v>
       </c>
       <c r="O25" s="18">
@@ -5089,16 +5089,16 @@
       <c r="P25" s="18">
         <v>0</v>
       </c>
-      <c r="Q25" s="23">
-        <v>0</v>
-      </c>
-      <c r="R25" s="23">
-        <v>0</v>
-      </c>
-      <c r="S25" s="23">
-        <v>0</v>
-      </c>
-      <c r="T25" s="9">
+      <c r="Q25" s="22">
+        <v>0</v>
+      </c>
+      <c r="R25" s="22">
+        <v>0</v>
+      </c>
+      <c r="S25" s="22">
+        <v>0</v>
+      </c>
+      <c r="T25" s="22">
         <v>0</v>
       </c>
       <c r="U25" s="9">
@@ -5116,7 +5116,7 @@
       <c r="Y25" s="9">
         <v>6.8</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="20">
         <v>1.5338396955925771E-4</v>
       </c>
       <c r="AA25" s="10">
@@ -5216,7 +5216,7 @@
       <c r="M26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <v>0</v>
       </c>
       <c r="O26" s="18">
@@ -5225,16 +5225,16 @@
       <c r="P26" s="18">
         <v>0</v>
       </c>
-      <c r="Q26" s="23">
-        <v>0</v>
-      </c>
-      <c r="R26" s="23">
-        <v>0</v>
-      </c>
-      <c r="S26" s="23">
-        <v>0</v>
-      </c>
-      <c r="T26" s="9">
+      <c r="Q26" s="22">
+        <v>0</v>
+      </c>
+      <c r="R26" s="22">
+        <v>0</v>
+      </c>
+      <c r="S26" s="22">
+        <v>0</v>
+      </c>
+      <c r="T26" s="22">
         <v>0</v>
       </c>
       <c r="U26" s="9">
@@ -5252,7 +5252,7 @@
       <c r="Y26" s="9">
         <v>6.42</v>
       </c>
-      <c r="Z26" s="21">
+      <c r="Z26" s="20">
         <v>3.7089141286361735E-4</v>
       </c>
       <c r="AA26" s="10">
@@ -5352,7 +5352,7 @@
       <c r="M27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="21">
         <v>0</v>
       </c>
       <c r="O27" s="18">
@@ -5361,16 +5361,16 @@
       <c r="P27" s="18">
         <v>0</v>
       </c>
-      <c r="Q27" s="23">
-        <v>0</v>
-      </c>
-      <c r="R27" s="23">
-        <v>0</v>
-      </c>
-      <c r="S27" s="23">
-        <v>0</v>
-      </c>
-      <c r="T27" s="9">
+      <c r="Q27" s="22">
+        <v>0</v>
+      </c>
+      <c r="R27" s="22">
+        <v>0</v>
+      </c>
+      <c r="S27" s="22">
+        <v>0</v>
+      </c>
+      <c r="T27" s="22">
         <v>0</v>
       </c>
       <c r="U27" s="9">
@@ -5388,7 +5388,7 @@
       <c r="Y27" s="9">
         <v>6.62</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="20">
         <v>2.7480540605194493E-4</v>
       </c>
       <c r="AA27" s="10">
@@ -5488,7 +5488,7 @@
       <c r="M28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <v>54</v>
       </c>
       <c r="O28" s="18">
@@ -5497,16 +5497,16 @@
       <c r="P28" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="22">
         <v>44</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="22">
         <v>20</v>
       </c>
       <c r="U28" s="9">
@@ -5524,7 +5524,7 @@
       <c r="Y28" s="9">
         <v>6.02</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="20">
         <v>2.0398831454391245E-4</v>
       </c>
       <c r="AA28" s="10">
@@ -5624,7 +5624,7 @@
       <c r="M29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="21">
         <v>54</v>
       </c>
       <c r="O29" s="18">
@@ -5633,16 +5633,16 @@
       <c r="P29" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="22">
         <v>44</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="22">
         <v>20</v>
       </c>
       <c r="U29" s="9">
@@ -5660,7 +5660,7 @@
       <c r="Y29" s="9">
         <v>6.92</v>
       </c>
-      <c r="Z29" s="21">
+      <c r="Z29" s="20">
         <v>3.0212680501705025E-4</v>
       </c>
       <c r="AA29" s="10">
@@ -5760,7 +5760,7 @@
       <c r="M30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <v>54</v>
       </c>
       <c r="O30" s="18">
@@ -5769,16 +5769,16 @@
       <c r="P30" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q30" s="23">
+      <c r="Q30" s="22">
         <v>44</v>
       </c>
-      <c r="R30" s="23">
+      <c r="R30" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S30" s="23">
+      <c r="S30" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="22">
         <v>20</v>
       </c>
       <c r="U30" s="9">
@@ -5796,7 +5796,7 @@
       <c r="Y30" s="9">
         <v>6.46</v>
       </c>
-      <c r="Z30" s="21">
+      <c r="Z30" s="20">
         <v>5.2071045784910679E-4</v>
       </c>
       <c r="AA30" s="10">
@@ -5896,7 +5896,7 @@
       <c r="M31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="21">
         <v>54</v>
       </c>
       <c r="O31" s="18">
@@ -5905,16 +5905,16 @@
       <c r="P31" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q31" s="23">
+      <c r="Q31" s="22">
         <v>44</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="22">
         <v>20</v>
       </c>
       <c r="U31" s="9">
@@ -5932,7 +5932,7 @@
       <c r="Y31" s="9">
         <v>6.38</v>
       </c>
-      <c r="Z31" s="21">
+      <c r="Z31" s="20">
         <v>2.1656180975033679E-4</v>
       </c>
       <c r="AA31" s="10">
@@ -6029,7 +6029,7 @@
       <c r="M32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <v>89</v>
       </c>
       <c r="O32" s="18">
@@ -6038,17 +6038,17 @@
       <c r="P32" s="18">
         <v>30.098839814294021</v>
       </c>
-      <c r="Q32" s="23">
+      <c r="Q32" s="22">
         <v>59</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="22">
         <v>562.45650495247719</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S32" s="22">
         <v>66.292134831460672</v>
       </c>
-      <c r="T32" s="9">
-        <v>16.79</v>
+      <c r="T32" s="22">
+        <v>19.93</v>
       </c>
       <c r="U32" s="9">
         <v>0.69772500000000004</v>
@@ -6065,7 +6065,7 @@
       <c r="Y32" s="9">
         <v>5.81</v>
       </c>
-      <c r="Z32" s="21">
+      <c r="Z32" s="20">
         <v>1.5375812470969292E-3</v>
       </c>
       <c r="AA32" s="10">
@@ -6162,7 +6162,7 @@
       <c r="M33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <v>89</v>
       </c>
       <c r="O33" s="18">
@@ -6171,17 +6171,17 @@
       <c r="P33" s="18">
         <v>30.098839814294021</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="22">
         <v>59</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="22">
         <v>562.45650495247719</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S33" s="22">
         <v>66.292134831460672</v>
       </c>
-      <c r="T33" s="9">
-        <v>16.79</v>
+      <c r="T33" s="22">
+        <v>19.93</v>
       </c>
       <c r="U33" s="9">
         <v>0.69772500000000004</v>
@@ -6198,7 +6198,7 @@
       <c r="Y33" s="9">
         <v>5.93</v>
       </c>
-      <c r="Z33" s="21">
+      <c r="Z33" s="20">
         <v>1.442968592064641E-3</v>
       </c>
       <c r="AA33" s="10">
@@ -6298,7 +6298,7 @@
       <c r="M34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="21">
         <v>0</v>
       </c>
       <c r="O34" s="18">
@@ -6307,16 +6307,16 @@
       <c r="P34" s="18">
         <v>0</v>
       </c>
-      <c r="Q34" s="23">
-        <v>0</v>
-      </c>
-      <c r="R34" s="23">
-        <v>0</v>
-      </c>
-      <c r="S34" s="23">
-        <v>0</v>
-      </c>
-      <c r="T34" s="9">
+      <c r="Q34" s="22">
+        <v>0</v>
+      </c>
+      <c r="R34" s="22">
+        <v>0</v>
+      </c>
+      <c r="S34" s="22">
+        <v>0</v>
+      </c>
+      <c r="T34" s="22">
         <v>0</v>
       </c>
       <c r="U34" s="9">
@@ -6334,7 +6334,7 @@
       <c r="Y34" s="9">
         <v>6.45</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="20">
         <v>2.0758719720995262E-4</v>
       </c>
       <c r="AA34" s="10">
@@ -6434,7 +6434,7 @@
       <c r="M35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <v>0</v>
       </c>
       <c r="O35" s="18">
@@ -6443,16 +6443,16 @@
       <c r="P35" s="18">
         <v>0</v>
       </c>
-      <c r="Q35" s="23">
-        <v>0</v>
-      </c>
-      <c r="R35" s="23">
-        <v>0</v>
-      </c>
-      <c r="S35" s="23">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9">
+      <c r="Q35" s="22">
+        <v>0</v>
+      </c>
+      <c r="R35" s="22">
+        <v>0</v>
+      </c>
+      <c r="S35" s="22">
+        <v>0</v>
+      </c>
+      <c r="T35" s="22">
         <v>0</v>
       </c>
       <c r="U35" s="9">
@@ -6470,7 +6470,7 @@
       <c r="Y35" s="9">
         <v>6.32</v>
       </c>
-      <c r="Z35" s="21">
+      <c r="Z35" s="20">
         <v>2.0782161841293234E-4</v>
       </c>
       <c r="AA35" s="10">
@@ -6570,7 +6570,7 @@
       <c r="M36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="21">
         <v>0</v>
       </c>
       <c r="O36" s="18">
@@ -6579,16 +6579,16 @@
       <c r="P36" s="18">
         <v>0</v>
       </c>
-      <c r="Q36" s="23">
-        <v>0</v>
-      </c>
-      <c r="R36" s="23">
-        <v>0</v>
-      </c>
-      <c r="S36" s="23">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
+      <c r="Q36" s="22">
+        <v>0</v>
+      </c>
+      <c r="R36" s="22">
+        <v>0</v>
+      </c>
+      <c r="S36" s="22">
+        <v>0</v>
+      </c>
+      <c r="T36" s="22">
         <v>0</v>
       </c>
       <c r="U36" s="9">
@@ -6606,7 +6606,7 @@
       <c r="Y36" s="9">
         <v>6.03</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z36" s="20">
         <v>1.4299864028139258E-4</v>
       </c>
       <c r="AA36" s="10">
@@ -6706,7 +6706,7 @@
       <c r="M37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="21">
         <v>0</v>
       </c>
       <c r="O37" s="18">
@@ -6715,16 +6715,16 @@
       <c r="P37" s="18">
         <v>0</v>
       </c>
-      <c r="Q37" s="23">
-        <v>0</v>
-      </c>
-      <c r="R37" s="23">
-        <v>0</v>
-      </c>
-      <c r="S37" s="23">
-        <v>0</v>
-      </c>
-      <c r="T37" s="9">
+      <c r="Q37" s="22">
+        <v>0</v>
+      </c>
+      <c r="R37" s="22">
+        <v>0</v>
+      </c>
+      <c r="S37" s="22">
+        <v>0</v>
+      </c>
+      <c r="T37" s="22">
         <v>0</v>
       </c>
       <c r="U37" s="9">
@@ -6742,7 +6742,7 @@
       <c r="Y37" s="9">
         <v>5.92</v>
       </c>
-      <c r="Z37" s="21">
+      <c r="Z37" s="20">
         <v>2.2682240659325286E-4</v>
       </c>
       <c r="AA37" s="10">
@@ -6842,7 +6842,7 @@
       <c r="M38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <v>58</v>
       </c>
       <c r="O38" s="18">
@@ -6851,17 +6851,17 @@
       <c r="P38" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="Q38" s="22">
         <v>42</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R38" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S38" s="23">
+      <c r="S38" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T38" s="9">
-        <v>17.399999999999999</v>
+      <c r="T38" s="22">
+        <v>19.52</v>
       </c>
       <c r="U38" s="9">
         <v>0.79235</v>
@@ -6878,7 +6878,7 @@
       <c r="Y38" s="9">
         <v>6.31</v>
       </c>
-      <c r="Z38" s="21">
+      <c r="Z38" s="20">
         <v>9.4352613298010827E-5</v>
       </c>
       <c r="AA38" s="10">
@@ -6978,7 +6978,7 @@
       <c r="M39" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="21">
         <v>58</v>
       </c>
       <c r="O39" s="18">
@@ -6987,17 +6987,17 @@
       <c r="P39" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q39" s="22">
         <v>42</v>
       </c>
-      <c r="R39" s="23">
+      <c r="R39" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S39" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T39" s="9">
-        <v>17.399999999999999</v>
+      <c r="T39" s="22">
+        <v>19.52</v>
       </c>
       <c r="U39" s="9">
         <v>0.79235</v>
@@ -7014,7 +7014,7 @@
       <c r="Y39" s="9">
         <v>6.25</v>
       </c>
-      <c r="Z39" s="21">
+      <c r="Z39" s="20">
         <v>9.836875523511623E-5</v>
       </c>
       <c r="AA39" s="10">
@@ -7114,7 +7114,7 @@
       <c r="M40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="21">
         <v>58</v>
       </c>
       <c r="O40" s="18">
@@ -7123,17 +7123,17 @@
       <c r="P40" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q40" s="23">
+      <c r="Q40" s="22">
         <v>42</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S40" s="23">
+      <c r="S40" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T40" s="9">
-        <v>17.399999999999999</v>
+      <c r="T40" s="22">
+        <v>19.52</v>
       </c>
       <c r="U40" s="9">
         <v>0.80389999999999984</v>
@@ -7150,7 +7150,7 @@
       <c r="Y40" s="9">
         <v>6.14</v>
       </c>
-      <c r="Z40" s="21">
+      <c r="Z40" s="20">
         <v>2.0566374467962916E-4</v>
       </c>
       <c r="AA40" s="10">
@@ -7250,7 +7250,7 @@
       <c r="M41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <v>58</v>
       </c>
       <c r="O41" s="18">
@@ -7259,17 +7259,17 @@
       <c r="P41" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="22">
         <v>42</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S41" s="23">
+      <c r="S41" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T41" s="9">
-        <v>17.399999999999999</v>
+      <c r="T41" s="22">
+        <v>19.52</v>
       </c>
       <c r="U41" s="9">
         <v>0.80389999999999984</v>
@@ -7286,7 +7286,7 @@
       <c r="Y41" s="9">
         <v>6.33</v>
       </c>
-      <c r="Z41" s="21">
+      <c r="Z41" s="20">
         <v>2.332262978577052E-4</v>
       </c>
       <c r="AA41" s="10">
@@ -7383,7 +7383,7 @@
       <c r="M42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="21">
         <v>85</v>
       </c>
       <c r="O42" s="18">
@@ -7392,17 +7392,17 @@
       <c r="P42" s="18">
         <v>19.657585917854153</v>
       </c>
-      <c r="Q42" s="23">
+      <c r="Q42" s="22">
         <v>66</v>
       </c>
-      <c r="R42" s="23">
+      <c r="R42" s="22">
         <v>502.93378038558262</v>
       </c>
-      <c r="S42" s="23">
+      <c r="S42" s="22">
         <v>77.64705882352942</v>
       </c>
-      <c r="T42" s="9">
-        <v>15.76</v>
+      <c r="T42" s="22">
+        <v>17.329999999999998</v>
       </c>
       <c r="U42" s="9">
         <v>0.56009999999999993</v>
@@ -7419,7 +7419,7 @@
       <c r="Y42" s="9">
         <v>6.31</v>
       </c>
-      <c r="Z42" s="21">
+      <c r="Z42" s="20">
         <v>9.5629317468362487E-5</v>
       </c>
       <c r="AA42" s="10">
@@ -7516,7 +7516,7 @@
       <c r="M43" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N43" s="21">
         <v>85</v>
       </c>
       <c r="O43" s="18">
@@ -7525,17 +7525,17 @@
       <c r="P43" s="18">
         <v>19.657585917854153</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="Q43" s="22">
         <v>66</v>
       </c>
-      <c r="R43" s="23">
+      <c r="R43" s="22">
         <v>502.93378038558262</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S43" s="22">
         <v>77.64705882352942</v>
       </c>
-      <c r="T43" s="9">
-        <v>15.76</v>
+      <c r="T43" s="22">
+        <v>17.329999999999998</v>
       </c>
       <c r="U43" s="9">
         <v>0.56009999999999993</v>
@@ -7552,7 +7552,7 @@
       <c r="Y43" s="9">
         <v>6.11</v>
       </c>
-      <c r="Z43" s="21">
+      <c r="Z43" s="20">
         <v>1.0116726086964531E-4</v>
       </c>
       <c r="AA43" s="10">
@@ -7652,7 +7652,7 @@
       <c r="M44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="21">
         <v>0</v>
       </c>
       <c r="O44" s="18">
@@ -7661,16 +7661,16 @@
       <c r="P44" s="18">
         <v>0</v>
       </c>
-      <c r="Q44" s="23">
-        <v>0</v>
-      </c>
-      <c r="R44" s="23">
-        <v>0</v>
-      </c>
-      <c r="S44" s="23">
-        <v>0</v>
-      </c>
-      <c r="T44" s="9">
+      <c r="Q44" s="22">
+        <v>0</v>
+      </c>
+      <c r="R44" s="22">
+        <v>0</v>
+      </c>
+      <c r="S44" s="22">
+        <v>0</v>
+      </c>
+      <c r="T44" s="22">
         <v>0</v>
       </c>
       <c r="U44" s="9">
@@ -7688,7 +7688,7 @@
       <c r="Y44" s="9">
         <v>7.19</v>
       </c>
-      <c r="Z44" s="21">
+      <c r="Z44" s="20">
         <v>3.1964939516434886E-4</v>
       </c>
       <c r="AA44" s="10">
@@ -7788,7 +7788,7 @@
       <c r="M45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="21">
         <v>0</v>
       </c>
       <c r="O45" s="18">
@@ -7797,16 +7797,16 @@
       <c r="P45" s="18">
         <v>0</v>
       </c>
-      <c r="Q45" s="23">
-        <v>0</v>
-      </c>
-      <c r="R45" s="23">
-        <v>0</v>
-      </c>
-      <c r="S45" s="23">
-        <v>0</v>
-      </c>
-      <c r="T45" s="9">
+      <c r="Q45" s="22">
+        <v>0</v>
+      </c>
+      <c r="R45" s="22">
+        <v>0</v>
+      </c>
+      <c r="S45" s="22">
+        <v>0</v>
+      </c>
+      <c r="T45" s="22">
         <v>0</v>
       </c>
       <c r="U45" s="9">
@@ -7824,7 +7824,7 @@
       <c r="Y45" s="9">
         <v>7.42</v>
       </c>
-      <c r="Z45" s="21">
+      <c r="Z45" s="20">
         <v>1.4434821629589096E-4</v>
       </c>
       <c r="AA45" s="10">
@@ -7924,7 +7924,7 @@
       <c r="M46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N46" s="22">
+      <c r="N46" s="21">
         <v>0</v>
       </c>
       <c r="O46" s="18">
@@ -7933,16 +7933,16 @@
       <c r="P46" s="18">
         <v>0</v>
       </c>
-      <c r="Q46" s="23">
-        <v>0</v>
-      </c>
-      <c r="R46" s="23">
-        <v>0</v>
-      </c>
-      <c r="S46" s="23">
-        <v>0</v>
-      </c>
-      <c r="T46" s="9">
+      <c r="Q46" s="22">
+        <v>0</v>
+      </c>
+      <c r="R46" s="22">
+        <v>0</v>
+      </c>
+      <c r="S46" s="22">
+        <v>0</v>
+      </c>
+      <c r="T46" s="22">
         <v>0</v>
       </c>
       <c r="U46" s="9">
@@ -7960,7 +7960,7 @@
       <c r="Y46" s="9">
         <v>7.11</v>
       </c>
-      <c r="Z46" s="21">
+      <c r="Z46" s="20">
         <v>1.1521445014278187E-4</v>
       </c>
       <c r="AA46" s="10">
@@ -8060,7 +8060,7 @@
       <c r="M47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="21">
         <v>0</v>
       </c>
       <c r="O47" s="18">
@@ -8069,16 +8069,16 @@
       <c r="P47" s="18">
         <v>0</v>
       </c>
-      <c r="Q47" s="23">
-        <v>0</v>
-      </c>
-      <c r="R47" s="23">
-        <v>0</v>
-      </c>
-      <c r="S47" s="23">
-        <v>0</v>
-      </c>
-      <c r="T47" s="9">
+      <c r="Q47" s="22">
+        <v>0</v>
+      </c>
+      <c r="R47" s="22">
+        <v>0</v>
+      </c>
+      <c r="S47" s="22">
+        <v>0</v>
+      </c>
+      <c r="T47" s="22">
         <v>0</v>
       </c>
       <c r="U47" s="9">
@@ -8096,7 +8096,7 @@
       <c r="Y47" s="9">
         <v>7.1</v>
       </c>
-      <c r="Z47" s="21">
+      <c r="Z47" s="20">
         <v>1.1937437088006879E-4</v>
       </c>
       <c r="AA47" s="10">
@@ -8196,7 +8196,7 @@
       <c r="M48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N48" s="22">
+      <c r="N48" s="21">
         <v>89</v>
       </c>
       <c r="O48" s="18">
@@ -8205,17 +8205,17 @@
       <c r="P48" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="22">
         <v>60</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T48" s="9">
-        <v>20.81</v>
+      <c r="T48" s="22">
+        <v>22.45</v>
       </c>
       <c r="U48" s="9">
         <v>0.85179999999999989</v>
@@ -8232,7 +8232,7 @@
       <c r="Y48" s="9">
         <v>6.04</v>
       </c>
-      <c r="Z48" s="21">
+      <c r="Z48" s="20">
         <v>1.0543791581419862E-4</v>
       </c>
       <c r="AA48" s="10">
@@ -8332,7 +8332,7 @@
       <c r="M49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N49" s="22">
+      <c r="N49" s="21">
         <v>89</v>
       </c>
       <c r="O49" s="18">
@@ -8341,17 +8341,17 @@
       <c r="P49" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q49" s="23">
+      <c r="Q49" s="22">
         <v>60</v>
       </c>
-      <c r="R49" s="23">
+      <c r="R49" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S49" s="23">
+      <c r="S49" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T49" s="9">
-        <v>20.81</v>
+      <c r="T49" s="22">
+        <v>22.45</v>
       </c>
       <c r="U49" s="9">
         <v>0.85179999999999989</v>
@@ -8368,7 +8368,7 @@
       <c r="Y49" s="9">
         <v>5.94</v>
       </c>
-      <c r="Z49" s="21">
+      <c r="Z49" s="20">
         <v>1.3780248243848493E-4</v>
       </c>
       <c r="AA49" s="10">
@@ -8468,7 +8468,7 @@
       <c r="M50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="21">
         <v>89</v>
       </c>
       <c r="O50" s="18">
@@ -8477,17 +8477,17 @@
       <c r="P50" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q50" s="23">
+      <c r="Q50" s="22">
         <v>60</v>
       </c>
-      <c r="R50" s="23">
+      <c r="R50" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S50" s="23">
+      <c r="S50" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T50" s="9">
-        <v>20.81</v>
+      <c r="T50" s="22">
+        <v>22.45</v>
       </c>
       <c r="U50" s="9">
         <v>0.82255</v>
@@ -8504,7 +8504,7 @@
       <c r="Y50" s="9">
         <v>6.61</v>
       </c>
-      <c r="Z50" s="21">
+      <c r="Z50" s="20">
         <v>1.0770790143581388E-4</v>
       </c>
       <c r="AA50" s="10">
@@ -8604,7 +8604,7 @@
       <c r="M51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N51" s="21">
         <v>89</v>
       </c>
       <c r="O51" s="18">
@@ -8613,17 +8613,17 @@
       <c r="P51" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="22">
         <v>60</v>
       </c>
-      <c r="R51" s="23">
+      <c r="R51" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T51" s="9">
-        <v>20.81</v>
+      <c r="T51" s="22">
+        <v>22.45</v>
       </c>
       <c r="U51" s="9">
         <v>0.82255</v>
@@ -8640,7 +8640,7 @@
       <c r="Y51" s="9">
         <v>6.58</v>
       </c>
-      <c r="Z51" s="21">
+      <c r="Z51" s="20">
         <v>3.0535960693677921E-4</v>
       </c>
       <c r="AA51" s="10">
@@ -8737,7 +8737,7 @@
       <c r="M52" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="21">
         <v>81</v>
       </c>
       <c r="O52" s="18">
@@ -8746,17 +8746,17 @@
       <c r="P52" s="18">
         <v>20.711952032496626</v>
       </c>
-      <c r="Q52" s="23">
+      <c r="Q52" s="22">
         <v>52</v>
       </c>
-      <c r="R52" s="23">
+      <c r="R52" s="22">
         <v>505.33026248019979</v>
       </c>
-      <c r="S52" s="23">
+      <c r="S52" s="22">
         <v>64.197530864197532</v>
       </c>
-      <c r="T52" s="9">
-        <v>14.23</v>
+      <c r="T52" s="22">
+        <v>15.1</v>
       </c>
       <c r="U52" s="9">
         <v>0.85524999999999984</v>
@@ -8773,7 +8773,7 @@
       <c r="Y52" s="9">
         <v>6.67</v>
       </c>
-      <c r="Z52" s="21">
+      <c r="Z52" s="20">
         <v>1.0483965622990511E-4</v>
       </c>
       <c r="AA52" s="10">
@@ -8870,7 +8870,7 @@
       <c r="M53" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="21">
         <v>81</v>
       </c>
       <c r="O53" s="18">
@@ -8879,17 +8879,17 @@
       <c r="P53" s="18">
         <v>20.711952032496626</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q53" s="22">
         <v>52</v>
       </c>
-      <c r="R53" s="23">
+      <c r="R53" s="22">
         <v>505.33026248019979</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S53" s="22">
         <v>64.197530864197532</v>
       </c>
-      <c r="T53" s="9">
-        <v>14.23</v>
+      <c r="T53" s="22">
+        <v>15.1</v>
       </c>
       <c r="U53" s="9">
         <v>0.85524999999999984</v>
@@ -8906,7 +8906,7 @@
       <c r="Y53" s="9">
         <v>6.43</v>
       </c>
-      <c r="Z53" s="21">
+      <c r="Z53" s="20">
         <v>7.4394865711521188E-4</v>
       </c>
       <c r="AA53" s="10">
@@ -9006,7 +9006,7 @@
       <c r="M54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N54" s="22">
+      <c r="N54" s="21">
         <v>0</v>
       </c>
       <c r="O54" s="18">
@@ -9015,16 +9015,16 @@
       <c r="P54" s="18">
         <v>0</v>
       </c>
-      <c r="Q54" s="23">
-        <v>0</v>
-      </c>
-      <c r="R54" s="23">
-        <v>0</v>
-      </c>
-      <c r="S54" s="23">
-        <v>0</v>
-      </c>
-      <c r="T54" s="9">
+      <c r="Q54" s="22">
+        <v>0</v>
+      </c>
+      <c r="R54" s="22">
+        <v>0</v>
+      </c>
+      <c r="S54" s="22">
+        <v>0</v>
+      </c>
+      <c r="T54" s="22">
         <v>0</v>
       </c>
       <c r="U54" s="9">
@@ -9042,7 +9042,7 @@
       <c r="Y54" s="9">
         <v>6.77</v>
       </c>
-      <c r="Z54" s="21">
+      <c r="Z54" s="20">
         <v>1.2595637770272794E-4</v>
       </c>
       <c r="AA54" s="10">
@@ -9142,7 +9142,7 @@
       <c r="M55" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="21">
         <v>0</v>
       </c>
       <c r="O55" s="18">
@@ -9151,16 +9151,16 @@
       <c r="P55" s="18">
         <v>0</v>
       </c>
-      <c r="Q55" s="23">
-        <v>0</v>
-      </c>
-      <c r="R55" s="23">
-        <v>0</v>
-      </c>
-      <c r="S55" s="23">
-        <v>0</v>
-      </c>
-      <c r="T55" s="9">
+      <c r="Q55" s="22">
+        <v>0</v>
+      </c>
+      <c r="R55" s="22">
+        <v>0</v>
+      </c>
+      <c r="S55" s="22">
+        <v>0</v>
+      </c>
+      <c r="T55" s="22">
         <v>0</v>
       </c>
       <c r="U55" s="9">
@@ -9178,7 +9178,7 @@
       <c r="Y55" s="9">
         <v>6.13</v>
       </c>
-      <c r="Z55" s="21">
+      <c r="Z55" s="20">
         <v>1.5664729093637215E-4</v>
       </c>
       <c r="AA55" s="10">
@@ -9278,7 +9278,7 @@
       <c r="M56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N56" s="22">
+      <c r="N56" s="21">
         <v>0</v>
       </c>
       <c r="O56" s="18">
@@ -9287,16 +9287,16 @@
       <c r="P56" s="18">
         <v>0</v>
       </c>
-      <c r="Q56" s="23">
-        <v>0</v>
-      </c>
-      <c r="R56" s="23">
-        <v>0</v>
-      </c>
-      <c r="S56" s="23">
-        <v>0</v>
-      </c>
-      <c r="T56" s="9">
+      <c r="Q56" s="22">
+        <v>0</v>
+      </c>
+      <c r="R56" s="22">
+        <v>0</v>
+      </c>
+      <c r="S56" s="22">
+        <v>0</v>
+      </c>
+      <c r="T56" s="22">
         <v>0</v>
       </c>
       <c r="U56" s="9">
@@ -9314,7 +9314,7 @@
       <c r="Y56" s="9">
         <v>6.68</v>
       </c>
-      <c r="Z56" s="21">
+      <c r="Z56" s="20">
         <v>3.3340689414664942E-4</v>
       </c>
       <c r="AA56" s="10">
@@ -9414,7 +9414,7 @@
       <c r="M57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N57" s="22">
+      <c r="N57" s="21">
         <v>0</v>
       </c>
       <c r="O57" s="18">
@@ -9423,16 +9423,16 @@
       <c r="P57" s="18">
         <v>0</v>
       </c>
-      <c r="Q57" s="23">
-        <v>0</v>
-      </c>
-      <c r="R57" s="23">
-        <v>0</v>
-      </c>
-      <c r="S57" s="23">
-        <v>0</v>
-      </c>
-      <c r="T57" s="9">
+      <c r="Q57" s="22">
+        <v>0</v>
+      </c>
+      <c r="R57" s="22">
+        <v>0</v>
+      </c>
+      <c r="S57" s="22">
+        <v>0</v>
+      </c>
+      <c r="T57" s="22">
         <v>0</v>
       </c>
       <c r="U57" s="9">
@@ -9450,7 +9450,7 @@
       <c r="Y57" s="9">
         <v>5.59</v>
       </c>
-      <c r="Z57" s="21">
+      <c r="Z57" s="20">
         <v>2.1188572075798022E-4</v>
       </c>
       <c r="AA57" s="10">
@@ -9550,7 +9550,7 @@
       <c r="M58" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N58" s="22">
+      <c r="N58" s="21">
         <v>32</v>
       </c>
       <c r="O58" s="18">
@@ -9559,16 +9559,16 @@
       <c r="P58" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q58" s="23">
+      <c r="Q58" s="22">
         <v>31</v>
       </c>
-      <c r="R58" s="23">
+      <c r="R58" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S58" s="23">
+      <c r="S58" s="22">
         <v>96.875</v>
       </c>
-      <c r="T58" s="9">
+      <c r="T58" s="22">
         <v>20.53</v>
       </c>
       <c r="U58" s="9">
@@ -9586,7 +9586,7 @@
       <c r="Y58" s="9">
         <v>5.77</v>
       </c>
-      <c r="Z58" s="21">
+      <c r="Z58" s="20">
         <v>1.438026339655496E-4</v>
       </c>
       <c r="AA58" s="10">
@@ -9686,7 +9686,7 @@
       <c r="M59" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N59" s="21">
         <v>32</v>
       </c>
       <c r="O59" s="18">
@@ -9695,16 +9695,16 @@
       <c r="P59" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q59" s="23">
+      <c r="Q59" s="22">
         <v>31</v>
       </c>
-      <c r="R59" s="23">
+      <c r="R59" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S59" s="23">
+      <c r="S59" s="22">
         <v>96.875</v>
       </c>
-      <c r="T59" s="9">
+      <c r="T59" s="22">
         <v>20.53</v>
       </c>
       <c r="U59" s="9">
@@ -9722,7 +9722,7 @@
       <c r="Y59" s="9">
         <v>6.93</v>
       </c>
-      <c r="Z59" s="21">
+      <c r="Z59" s="20">
         <v>1.1858096594439074E-4</v>
       </c>
       <c r="AA59" s="10">
@@ -9822,7 +9822,7 @@
       <c r="M60" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N60" s="21">
         <v>32</v>
       </c>
       <c r="O60" s="18">
@@ -9831,16 +9831,16 @@
       <c r="P60" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q60" s="23">
+      <c r="Q60" s="22">
         <v>31</v>
       </c>
-      <c r="R60" s="23">
+      <c r="R60" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S60" s="23">
+      <c r="S60" s="22">
         <v>96.875</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T60" s="22">
         <v>20.53</v>
       </c>
       <c r="U60" s="9">
@@ -9858,7 +9858,7 @@
       <c r="Y60" s="9">
         <v>6.92</v>
       </c>
-      <c r="Z60" s="21">
+      <c r="Z60" s="20">
         <v>6.6638213509719729E-4</v>
       </c>
       <c r="AA60" s="10">
@@ -9958,7 +9958,7 @@
       <c r="M61" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="21">
         <v>32</v>
       </c>
       <c r="O61" s="18">
@@ -9967,16 +9967,16 @@
       <c r="P61" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q61" s="23">
+      <c r="Q61" s="22">
         <v>31</v>
       </c>
-      <c r="R61" s="23">
+      <c r="R61" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S61" s="23">
+      <c r="S61" s="22">
         <v>96.875</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61" s="22">
         <v>20.53</v>
       </c>
       <c r="U61" s="9">
@@ -9994,7 +9994,7 @@
       <c r="Y61" s="9">
         <v>6.14</v>
       </c>
-      <c r="Z61" s="21">
+      <c r="Z61" s="20">
         <v>2.2664876321731777E-4</v>
       </c>
       <c r="AA61" s="10">
@@ -10091,7 +10091,7 @@
       <c r="M62" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="22">
+      <c r="N62" s="21">
         <v>112</v>
       </c>
       <c r="O62" s="18">
@@ -10100,17 +10100,17 @@
       <c r="P62" s="18">
         <v>26.874558700148693</v>
       </c>
-      <c r="Q62" s="23">
+      <c r="Q62" s="22">
         <v>92</v>
       </c>
-      <c r="R62" s="23">
+      <c r="R62" s="22">
         <v>764.22750720616705</v>
       </c>
-      <c r="S62" s="23">
+      <c r="S62" s="22">
         <v>82.142857142857139</v>
       </c>
-      <c r="T62" s="9">
-        <v>15.7</v>
+      <c r="T62" s="22">
+        <v>17.239999999999998</v>
       </c>
       <c r="U62" s="9">
         <v>0.73997500000000005</v>
@@ -10127,7 +10127,7 @@
       <c r="Y62" s="9">
         <v>6.84</v>
       </c>
-      <c r="Z62" s="21">
+      <c r="Z62" s="20">
         <v>1.1519737735588713E-4</v>
       </c>
       <c r="AA62" s="10">
@@ -10224,7 +10224,7 @@
       <c r="M63" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N63" s="21">
         <v>112</v>
       </c>
       <c r="O63" s="18">
@@ -10233,17 +10233,17 @@
       <c r="P63" s="18">
         <v>26.874558700148693</v>
       </c>
-      <c r="Q63" s="23">
+      <c r="Q63" s="22">
         <v>92</v>
       </c>
-      <c r="R63" s="23">
+      <c r="R63" s="22">
         <v>764.22750720616705</v>
       </c>
-      <c r="S63" s="23">
+      <c r="S63" s="22">
         <v>82.142857142857139</v>
       </c>
-      <c r="T63" s="9">
-        <v>15.7</v>
+      <c r="T63" s="22">
+        <v>17.239999999999998</v>
       </c>
       <c r="U63" s="9">
         <v>0.73997500000000005</v>
@@ -10260,7 +10260,7 @@
       <c r="Y63" s="9">
         <v>7.08</v>
       </c>
-      <c r="Z63" s="21">
+      <c r="Z63" s="20">
         <v>2.3530494404373694E-4</v>
       </c>
       <c r="AA63" s="10">
@@ -10360,7 +10360,7 @@
       <c r="M64" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N64" s="22">
+      <c r="N64" s="21">
         <v>0</v>
       </c>
       <c r="O64" s="18">
@@ -10369,16 +10369,16 @@
       <c r="P64" s="18">
         <v>0</v>
       </c>
-      <c r="Q64" s="23">
-        <v>0</v>
-      </c>
-      <c r="R64" s="23">
-        <v>0</v>
-      </c>
-      <c r="S64" s="23">
-        <v>0</v>
-      </c>
-      <c r="T64" s="9">
+      <c r="Q64" s="22">
+        <v>0</v>
+      </c>
+      <c r="R64" s="22">
+        <v>0</v>
+      </c>
+      <c r="S64" s="22">
+        <v>0</v>
+      </c>
+      <c r="T64" s="22">
         <v>0</v>
       </c>
       <c r="U64" s="9">
@@ -10396,7 +10396,7 @@
       <c r="Y64" s="9">
         <v>7.28</v>
       </c>
-      <c r="Z64" s="21">
+      <c r="Z64" s="20">
         <v>8.5320698210350745E-5</v>
       </c>
       <c r="AA64" s="10">
@@ -10496,7 +10496,7 @@
       <c r="M65" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N65" s="22">
+      <c r="N65" s="21">
         <v>0</v>
       </c>
       <c r="O65" s="18">
@@ -10505,16 +10505,16 @@
       <c r="P65" s="18">
         <v>0</v>
       </c>
-      <c r="Q65" s="23">
-        <v>0</v>
-      </c>
-      <c r="R65" s="23">
-        <v>0</v>
-      </c>
-      <c r="S65" s="23">
-        <v>0</v>
-      </c>
-      <c r="T65" s="9">
+      <c r="Q65" s="22">
+        <v>0</v>
+      </c>
+      <c r="R65" s="22">
+        <v>0</v>
+      </c>
+      <c r="S65" s="22">
+        <v>0</v>
+      </c>
+      <c r="T65" s="22">
         <v>0</v>
       </c>
       <c r="U65" s="9">
@@ -10532,7 +10532,7 @@
       <c r="Y65" s="9">
         <v>7.28</v>
       </c>
-      <c r="Z65" s="21">
+      <c r="Z65" s="20">
         <v>2.8056424867645396E-4</v>
       </c>
       <c r="AA65" s="10">
@@ -10632,7 +10632,7 @@
       <c r="M66" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N66" s="22">
+      <c r="N66" s="21">
         <v>0</v>
       </c>
       <c r="O66" s="18">
@@ -10641,16 +10641,16 @@
       <c r="P66" s="18">
         <v>0</v>
       </c>
-      <c r="Q66" s="23">
-        <v>0</v>
-      </c>
-      <c r="R66" s="23">
-        <v>0</v>
-      </c>
-      <c r="S66" s="23">
-        <v>0</v>
-      </c>
-      <c r="T66" s="9">
+      <c r="Q66" s="22">
+        <v>0</v>
+      </c>
+      <c r="R66" s="22">
+        <v>0</v>
+      </c>
+      <c r="S66" s="22">
+        <v>0</v>
+      </c>
+      <c r="T66" s="22">
         <v>0</v>
       </c>
       <c r="U66" s="9">
@@ -10668,7 +10668,7 @@
       <c r="Y66" s="9">
         <v>6.69</v>
       </c>
-      <c r="Z66" s="21">
+      <c r="Z66" s="20">
         <v>1.6573384207268368E-4</v>
       </c>
       <c r="AA66" s="10">
@@ -10768,7 +10768,7 @@
       <c r="M67" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N67" s="21">
         <v>0</v>
       </c>
       <c r="O67" s="18">
@@ -10777,16 +10777,16 @@
       <c r="P67" s="18">
         <v>0</v>
       </c>
-      <c r="Q67" s="23">
-        <v>0</v>
-      </c>
-      <c r="R67" s="23">
-        <v>0</v>
-      </c>
-      <c r="S67" s="23">
-        <v>0</v>
-      </c>
-      <c r="T67" s="9">
+      <c r="Q67" s="22">
+        <v>0</v>
+      </c>
+      <c r="R67" s="22">
+        <v>0</v>
+      </c>
+      <c r="S67" s="22">
+        <v>0</v>
+      </c>
+      <c r="T67" s="22">
         <v>0</v>
       </c>
       <c r="U67" s="9">
@@ -10804,7 +10804,7 @@
       <c r="Y67" s="9">
         <v>6.87</v>
       </c>
-      <c r="Z67" s="21">
+      <c r="Z67" s="20">
         <v>2.7977174061641808E-4</v>
       </c>
       <c r="AA67" s="10">
@@ -10904,7 +10904,7 @@
       <c r="M68" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N68" s="21">
         <v>54</v>
       </c>
       <c r="O68" s="18">
@@ -10913,16 +10913,16 @@
       <c r="P68" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q68" s="23">
+      <c r="Q68" s="22">
         <v>44</v>
       </c>
-      <c r="R68" s="23">
+      <c r="R68" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S68" s="23">
+      <c r="S68" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68" s="22">
         <v>20</v>
       </c>
       <c r="U68" s="9">
@@ -10940,7 +10940,7 @@
       <c r="Y68" s="9">
         <v>6.15</v>
       </c>
-      <c r="Z68" s="21">
+      <c r="Z68" s="20">
         <v>1.5180666691204289E-4</v>
       </c>
       <c r="AA68" s="10">
@@ -11040,7 +11040,7 @@
       <c r="M69" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N69" s="21">
         <v>54</v>
       </c>
       <c r="O69" s="18">
@@ -11049,16 +11049,16 @@
       <c r="P69" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q69" s="23">
+      <c r="Q69" s="22">
         <v>44</v>
       </c>
-      <c r="R69" s="23">
+      <c r="R69" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S69" s="23">
+      <c r="S69" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T69" s="9">
+      <c r="T69" s="22">
         <v>20</v>
       </c>
       <c r="U69" s="9">
@@ -11076,7 +11076,7 @@
       <c r="Y69" s="9">
         <v>6.75</v>
       </c>
-      <c r="Z69" s="21">
+      <c r="Z69" s="20">
         <v>1.0459659950380593E-4</v>
       </c>
       <c r="AA69" s="10">
@@ -11176,7 +11176,7 @@
       <c r="M70" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N70" s="21">
         <v>54</v>
       </c>
       <c r="O70" s="18">
@@ -11185,16 +11185,16 @@
       <c r="P70" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q70" s="23">
+      <c r="Q70" s="22">
         <v>44</v>
       </c>
-      <c r="R70" s="23">
+      <c r="R70" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S70" s="23">
+      <c r="S70" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T70" s="9">
+      <c r="T70" s="22">
         <v>20</v>
       </c>
       <c r="U70" s="9">
@@ -11212,7 +11212,7 @@
       <c r="Y70" s="9">
         <v>6.32</v>
       </c>
-      <c r="Z70" s="21">
+      <c r="Z70" s="20">
         <v>3.2645970225873784E-4</v>
       </c>
       <c r="AA70" s="10">
@@ -11312,7 +11312,7 @@
       <c r="M71" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N71" s="21">
         <v>54</v>
       </c>
       <c r="O71" s="18">
@@ -11321,16 +11321,16 @@
       <c r="P71" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q71" s="23">
+      <c r="Q71" s="22">
         <v>44</v>
       </c>
-      <c r="R71" s="23">
+      <c r="R71" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S71" s="23">
+      <c r="S71" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T71" s="9">
+      <c r="T71" s="22">
         <v>20</v>
       </c>
       <c r="U71" s="9">
@@ -11348,7 +11348,7 @@
       <c r="Y71" s="9">
         <v>6.72</v>
       </c>
-      <c r="Z71" s="21">
+      <c r="Z71" s="20">
         <v>1.154838652258571E-4</v>
       </c>
       <c r="AA71" s="10">
@@ -11445,7 +11445,7 @@
       <c r="M72" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N72" s="21">
         <v>89</v>
       </c>
       <c r="O72" s="18">
@@ -11454,17 +11454,17 @@
       <c r="P72" s="18">
         <v>30.098839814294021</v>
       </c>
-      <c r="Q72" s="23">
+      <c r="Q72" s="22">
         <v>59</v>
       </c>
-      <c r="R72" s="23">
+      <c r="R72" s="22">
         <v>562.45650495247719</v>
       </c>
-      <c r="S72" s="23">
+      <c r="S72" s="22">
         <v>66.292134831460672</v>
       </c>
-      <c r="T72" s="9">
-        <v>16.79</v>
+      <c r="T72" s="22">
+        <v>19.93</v>
       </c>
       <c r="U72" s="9">
         <v>0.69772500000000004</v>
@@ -11481,7 +11481,7 @@
       <c r="Y72" s="9">
         <v>5.83</v>
       </c>
-      <c r="Z72" s="21">
+      <c r="Z72" s="20">
         <v>7.8075273120072346E-4</v>
       </c>
       <c r="AA72" s="10">
@@ -11578,7 +11578,7 @@
       <c r="M73" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N73" s="21">
         <v>89</v>
       </c>
       <c r="O73" s="18">
@@ -11587,17 +11587,17 @@
       <c r="P73" s="18">
         <v>30.098839814294021</v>
       </c>
-      <c r="Q73" s="23">
+      <c r="Q73" s="22">
         <v>59</v>
       </c>
-      <c r="R73" s="23">
+      <c r="R73" s="22">
         <v>562.45650495247719</v>
       </c>
-      <c r="S73" s="23">
+      <c r="S73" s="22">
         <v>66.292134831460672</v>
       </c>
-      <c r="T73" s="9">
-        <v>16.79</v>
+      <c r="T73" s="22">
+        <v>19.93</v>
       </c>
       <c r="U73" s="9">
         <v>0.69772500000000004</v>
@@ -11614,7 +11614,7 @@
       <c r="Y73" s="9">
         <v>5.84</v>
       </c>
-      <c r="Z73" s="21">
+      <c r="Z73" s="20">
         <v>2.7635110473154791E-4</v>
       </c>
       <c r="AA73" s="10">
@@ -11714,7 +11714,7 @@
       <c r="M74" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="22">
+      <c r="N74" s="21">
         <v>0</v>
       </c>
       <c r="O74" s="18">
@@ -11723,16 +11723,16 @@
       <c r="P74" s="18">
         <v>0</v>
       </c>
-      <c r="Q74" s="23">
-        <v>0</v>
-      </c>
-      <c r="R74" s="23">
-        <v>0</v>
-      </c>
-      <c r="S74" s="23">
-        <v>0</v>
-      </c>
-      <c r="T74" s="9">
+      <c r="Q74" s="22">
+        <v>0</v>
+      </c>
+      <c r="R74" s="22">
+        <v>0</v>
+      </c>
+      <c r="S74" s="22">
+        <v>0</v>
+      </c>
+      <c r="T74" s="22">
         <v>0</v>
       </c>
       <c r="U74" s="9">
@@ -11750,7 +11750,7 @@
       <c r="Y74" s="9">
         <v>6.48</v>
       </c>
-      <c r="Z74" s="21">
+      <c r="Z74" s="20">
         <v>2.1113836382785324E-4</v>
       </c>
       <c r="AA74" s="10">
@@ -11850,7 +11850,7 @@
       <c r="M75" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N75" s="21">
         <v>0</v>
       </c>
       <c r="O75" s="18">
@@ -11859,16 +11859,16 @@
       <c r="P75" s="18">
         <v>0</v>
       </c>
-      <c r="Q75" s="23">
-        <v>0</v>
-      </c>
-      <c r="R75" s="23">
-        <v>0</v>
-      </c>
-      <c r="S75" s="23">
-        <v>0</v>
-      </c>
-      <c r="T75" s="9">
+      <c r="Q75" s="22">
+        <v>0</v>
+      </c>
+      <c r="R75" s="22">
+        <v>0</v>
+      </c>
+      <c r="S75" s="22">
+        <v>0</v>
+      </c>
+      <c r="T75" s="22">
         <v>0</v>
       </c>
       <c r="U75" s="9">
@@ -11886,7 +11886,7 @@
       <c r="Y75" s="9">
         <v>6.68</v>
       </c>
-      <c r="Z75" s="21">
+      <c r="Z75" s="20">
         <v>9.7269441473223382E-5</v>
       </c>
       <c r="AA75" s="10">
@@ -11986,7 +11986,7 @@
       <c r="M76" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N76" s="22">
+      <c r="N76" s="21">
         <v>0</v>
       </c>
       <c r="O76" s="18">
@@ -11995,16 +11995,16 @@
       <c r="P76" s="18">
         <v>0</v>
       </c>
-      <c r="Q76" s="23">
-        <v>0</v>
-      </c>
-      <c r="R76" s="23">
-        <v>0</v>
-      </c>
-      <c r="S76" s="23">
-        <v>0</v>
-      </c>
-      <c r="T76" s="9">
+      <c r="Q76" s="22">
+        <v>0</v>
+      </c>
+      <c r="R76" s="22">
+        <v>0</v>
+      </c>
+      <c r="S76" s="22">
+        <v>0</v>
+      </c>
+      <c r="T76" s="22">
         <v>0</v>
       </c>
       <c r="U76" s="9">
@@ -12022,7 +12022,7 @@
       <c r="Y76" s="9">
         <v>6.56</v>
       </c>
-      <c r="Z76" s="21">
+      <c r="Z76" s="20">
         <v>2.6911899419942905E-4</v>
       </c>
       <c r="AA76" s="10">
@@ -12122,7 +12122,7 @@
       <c r="M77" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N77" s="21">
         <v>0</v>
       </c>
       <c r="O77" s="18">
@@ -12131,16 +12131,16 @@
       <c r="P77" s="18">
         <v>0</v>
       </c>
-      <c r="Q77" s="23">
-        <v>0</v>
-      </c>
-      <c r="R77" s="23">
-        <v>0</v>
-      </c>
-      <c r="S77" s="23">
-        <v>0</v>
-      </c>
-      <c r="T77" s="9">
+      <c r="Q77" s="22">
+        <v>0</v>
+      </c>
+      <c r="R77" s="22">
+        <v>0</v>
+      </c>
+      <c r="S77" s="22">
+        <v>0</v>
+      </c>
+      <c r="T77" s="22">
         <v>0</v>
       </c>
       <c r="U77" s="9">
@@ -12158,7 +12158,7 @@
       <c r="Y77" s="9">
         <v>6.51</v>
       </c>
-      <c r="Z77" s="21">
+      <c r="Z77" s="20">
         <v>4.6196783644257864E-4</v>
       </c>
       <c r="AA77" s="10">
@@ -12258,7 +12258,7 @@
       <c r="M78" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="22">
+      <c r="N78" s="21">
         <v>58</v>
       </c>
       <c r="O78" s="18">
@@ -12267,17 +12267,17 @@
       <c r="P78" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q78" s="23">
+      <c r="Q78" s="22">
         <v>42</v>
       </c>
-      <c r="R78" s="23">
+      <c r="R78" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S78" s="23">
+      <c r="S78" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T78" s="9">
-        <v>17.399999999999999</v>
+      <c r="T78" s="22">
+        <v>19.52</v>
       </c>
       <c r="U78" s="9">
         <v>0.79235</v>
@@ -12294,7 +12294,7 @@
       <c r="Y78" s="9">
         <v>5.86</v>
       </c>
-      <c r="Z78" s="21">
+      <c r="Z78" s="20">
         <v>7.4848648243215057E-4</v>
       </c>
       <c r="AA78" s="10">
@@ -12394,7 +12394,7 @@
       <c r="M79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N79" s="21">
         <v>58</v>
       </c>
       <c r="O79" s="18">
@@ -12403,17 +12403,17 @@
       <c r="P79" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q79" s="23">
+      <c r="Q79" s="22">
         <v>42</v>
       </c>
-      <c r="R79" s="23">
+      <c r="R79" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S79" s="23">
+      <c r="S79" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T79" s="9">
-        <v>17.399999999999999</v>
+      <c r="T79" s="22">
+        <v>19.52</v>
       </c>
       <c r="U79" s="9">
         <v>0.79235</v>
@@ -12430,7 +12430,7 @@
       <c r="Y79" s="9">
         <v>6.18</v>
       </c>
-      <c r="Z79" s="21">
+      <c r="Z79" s="20">
         <v>9.7605817466445092E-5</v>
       </c>
       <c r="AA79" s="10">
@@ -12530,7 +12530,7 @@
       <c r="M80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N80" s="22">
+      <c r="N80" s="21">
         <v>58</v>
       </c>
       <c r="O80" s="18">
@@ -12539,17 +12539,17 @@
       <c r="P80" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q80" s="23">
+      <c r="Q80" s="22">
         <v>42</v>
       </c>
-      <c r="R80" s="23">
+      <c r="R80" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S80" s="23">
+      <c r="S80" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T80" s="9">
-        <v>17.399999999999999</v>
+      <c r="T80" s="22">
+        <v>19.52</v>
       </c>
       <c r="U80" s="9">
         <v>0.80389999999999984</v>
@@ -12566,7 +12566,7 @@
       <c r="Y80" s="9">
         <v>6.31</v>
       </c>
-      <c r="Z80" s="21">
+      <c r="Z80" s="20">
         <v>1.9243270572764199E-4</v>
       </c>
       <c r="AA80" s="10">
@@ -12666,7 +12666,7 @@
       <c r="M81" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N81" s="21">
         <v>58</v>
       </c>
       <c r="O81" s="18">
@@ -12675,17 +12675,17 @@
       <c r="P81" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q81" s="23">
+      <c r="Q81" s="22">
         <v>42</v>
       </c>
-      <c r="R81" s="23">
+      <c r="R81" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S81" s="23">
+      <c r="S81" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T81" s="9">
-        <v>17.399999999999999</v>
+      <c r="T81" s="22">
+        <v>19.52</v>
       </c>
       <c r="U81" s="9">
         <v>0.80389999999999984</v>
@@ -12702,7 +12702,7 @@
       <c r="Y81" s="9">
         <v>6.48</v>
       </c>
-      <c r="Z81" s="21">
+      <c r="Z81" s="20">
         <v>3.4310925361537363E-4</v>
       </c>
       <c r="AA81" s="10">
@@ -12799,7 +12799,7 @@
       <c r="M82" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N82" s="22">
+      <c r="N82" s="21">
         <v>85</v>
       </c>
       <c r="O82" s="18">
@@ -12808,17 +12808,17 @@
       <c r="P82" s="18">
         <v>19.657585917854153</v>
       </c>
-      <c r="Q82" s="23">
+      <c r="Q82" s="22">
         <v>66</v>
       </c>
-      <c r="R82" s="23">
+      <c r="R82" s="22">
         <v>502.93378038558262</v>
       </c>
-      <c r="S82" s="23">
+      <c r="S82" s="22">
         <v>77.64705882352942</v>
       </c>
-      <c r="T82" s="9">
-        <v>15.76</v>
+      <c r="T82" s="22">
+        <v>17.329999999999998</v>
       </c>
       <c r="U82" s="9">
         <v>0.56009999999999993</v>
@@ -12835,7 +12835,7 @@
       <c r="Y82" s="9">
         <v>6.04</v>
       </c>
-      <c r="Z82" s="21">
+      <c r="Z82" s="20">
         <v>6.4099999999999997E-4</v>
       </c>
       <c r="AA82" s="10">
@@ -12932,7 +12932,7 @@
       <c r="M83" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N83" s="21">
         <v>85</v>
       </c>
       <c r="O83" s="18">
@@ -12941,17 +12941,17 @@
       <c r="P83" s="18">
         <v>19.657585917854153</v>
       </c>
-      <c r="Q83" s="23">
+      <c r="Q83" s="22">
         <v>66</v>
       </c>
-      <c r="R83" s="23">
+      <c r="R83" s="22">
         <v>502.93378038558262</v>
       </c>
-      <c r="S83" s="23">
+      <c r="S83" s="22">
         <v>77.64705882352942</v>
       </c>
-      <c r="T83" s="9">
-        <v>15.76</v>
+      <c r="T83" s="22">
+        <v>17.329999999999998</v>
       </c>
       <c r="U83" s="9">
         <v>0.56009999999999993</v>
@@ -12968,7 +12968,7 @@
       <c r="Y83" s="9">
         <v>5.93</v>
       </c>
-      <c r="Z83" s="21">
+      <c r="Z83" s="20">
         <v>1.408E-3</v>
       </c>
       <c r="AA83" s="10">
@@ -13068,7 +13068,7 @@
       <c r="M84" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="22">
+      <c r="N84" s="21">
         <v>0</v>
       </c>
       <c r="O84" s="18">
@@ -13077,16 +13077,16 @@
       <c r="P84" s="18">
         <v>0</v>
       </c>
-      <c r="Q84" s="23">
-        <v>0</v>
-      </c>
-      <c r="R84" s="23">
-        <v>0</v>
-      </c>
-      <c r="S84" s="23">
-        <v>0</v>
-      </c>
-      <c r="T84" s="9">
+      <c r="Q84" s="22">
+        <v>0</v>
+      </c>
+      <c r="R84" s="22">
+        <v>0</v>
+      </c>
+      <c r="S84" s="22">
+        <v>0</v>
+      </c>
+      <c r="T84" s="22">
         <v>0</v>
       </c>
       <c r="U84" s="9">
@@ -13104,7 +13104,7 @@
       <c r="Y84" s="9">
         <v>7.11</v>
       </c>
-      <c r="Z84" s="21">
+      <c r="Z84" s="20">
         <v>9.5500000000000001E-4</v>
       </c>
       <c r="AA84" s="10">
@@ -13204,7 +13204,7 @@
       <c r="M85" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N85" s="21">
         <v>0</v>
       </c>
       <c r="O85" s="18">
@@ -13213,16 +13213,16 @@
       <c r="P85" s="18">
         <v>0</v>
       </c>
-      <c r="Q85" s="23">
-        <v>0</v>
-      </c>
-      <c r="R85" s="23">
-        <v>0</v>
-      </c>
-      <c r="S85" s="23">
-        <v>0</v>
-      </c>
-      <c r="T85" s="9">
+      <c r="Q85" s="22">
+        <v>0</v>
+      </c>
+      <c r="R85" s="22">
+        <v>0</v>
+      </c>
+      <c r="S85" s="22">
+        <v>0</v>
+      </c>
+      <c r="T85" s="22">
         <v>0</v>
       </c>
       <c r="U85" s="9">
@@ -13240,7 +13240,7 @@
       <c r="Y85" s="9">
         <v>7.33</v>
       </c>
-      <c r="Z85" s="21">
+      <c r="Z85" s="20">
         <v>8.8800000000000001E-4</v>
       </c>
       <c r="AA85" s="10">
@@ -13340,7 +13340,7 @@
       <c r="M86" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N86" s="22">
+      <c r="N86" s="21">
         <v>0</v>
       </c>
       <c r="O86" s="18">
@@ -13349,16 +13349,16 @@
       <c r="P86" s="18">
         <v>0</v>
       </c>
-      <c r="Q86" s="23">
-        <v>0</v>
-      </c>
-      <c r="R86" s="23">
-        <v>0</v>
-      </c>
-      <c r="S86" s="23">
-        <v>0</v>
-      </c>
-      <c r="T86" s="9">
+      <c r="Q86" s="22">
+        <v>0</v>
+      </c>
+      <c r="R86" s="22">
+        <v>0</v>
+      </c>
+      <c r="S86" s="22">
+        <v>0</v>
+      </c>
+      <c r="T86" s="22">
         <v>0</v>
       </c>
       <c r="U86" s="9">
@@ -13376,7 +13376,7 @@
       <c r="Y86" s="9">
         <v>7.26</v>
       </c>
-      <c r="Z86" s="21">
+      <c r="Z86" s="20">
         <v>8.0800000000000002E-4</v>
       </c>
       <c r="AA86" s="10">
@@ -13476,7 +13476,7 @@
       <c r="M87" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="21">
         <v>0</v>
       </c>
       <c r="O87" s="18">
@@ -13485,16 +13485,16 @@
       <c r="P87" s="18">
         <v>0</v>
       </c>
-      <c r="Q87" s="23">
-        <v>0</v>
-      </c>
-      <c r="R87" s="23">
-        <v>0</v>
-      </c>
-      <c r="S87" s="23">
-        <v>0</v>
-      </c>
-      <c r="T87" s="9">
+      <c r="Q87" s="22">
+        <v>0</v>
+      </c>
+      <c r="R87" s="22">
+        <v>0</v>
+      </c>
+      <c r="S87" s="22">
+        <v>0</v>
+      </c>
+      <c r="T87" s="22">
         <v>0</v>
       </c>
       <c r="U87" s="9">
@@ -13512,7 +13512,7 @@
       <c r="Y87" s="9">
         <v>7.15</v>
       </c>
-      <c r="Z87" s="21">
+      <c r="Z87" s="20">
         <v>1.4009999999999999E-3</v>
       </c>
       <c r="AA87" s="10">
@@ -13612,7 +13612,7 @@
       <c r="M88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="21">
         <v>89</v>
       </c>
       <c r="O88" s="18">
@@ -13621,17 +13621,17 @@
       <c r="P88" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q88" s="23">
+      <c r="Q88" s="22">
         <v>60</v>
       </c>
-      <c r="R88" s="23">
+      <c r="R88" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S88" s="23">
+      <c r="S88" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T88" s="9">
-        <v>20.81</v>
+      <c r="T88" s="22">
+        <v>22.45</v>
       </c>
       <c r="U88" s="9">
         <v>0.85179999999999989</v>
@@ -13648,7 +13648,7 @@
       <c r="Y88" s="9">
         <v>6.19</v>
       </c>
-      <c r="Z88" s="21">
+      <c r="Z88" s="20">
         <v>9.4300000000000004E-4</v>
       </c>
       <c r="AA88" s="10">
@@ -13748,7 +13748,7 @@
       <c r="M89" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N89" s="22">
+      <c r="N89" s="21">
         <v>89</v>
       </c>
       <c r="O89" s="18">
@@ -13757,17 +13757,17 @@
       <c r="P89" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q89" s="23">
+      <c r="Q89" s="22">
         <v>60</v>
       </c>
-      <c r="R89" s="23">
+      <c r="R89" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S89" s="23">
+      <c r="S89" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T89" s="9">
-        <v>20.81</v>
+      <c r="T89" s="22">
+        <v>22.45</v>
       </c>
       <c r="U89" s="9">
         <v>0.85179999999999989</v>
@@ -13784,7 +13784,7 @@
       <c r="Y89" s="9">
         <v>6.25</v>
       </c>
-      <c r="Z89" s="21">
+      <c r="Z89" s="20">
         <v>7.5500000000000003E-4</v>
       </c>
       <c r="AA89" s="10">
@@ -13884,7 +13884,7 @@
       <c r="M90" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N90" s="22">
+      <c r="N90" s="21">
         <v>89</v>
       </c>
       <c r="O90" s="18">
@@ -13893,17 +13893,17 @@
       <c r="P90" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q90" s="23">
+      <c r="Q90" s="22">
         <v>60</v>
       </c>
-      <c r="R90" s="23">
+      <c r="R90" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S90" s="23">
+      <c r="S90" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T90" s="9">
-        <v>20.81</v>
+      <c r="T90" s="22">
+        <v>22.45</v>
       </c>
       <c r="U90" s="9">
         <v>0.82255</v>
@@ -13920,7 +13920,7 @@
       <c r="Y90" s="9">
         <v>6.98</v>
       </c>
-      <c r="Z90" s="21">
+      <c r="Z90" s="20">
         <v>1.784E-3</v>
       </c>
       <c r="AA90" s="10">
@@ -14020,7 +14020,7 @@
       <c r="M91" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N91" s="22">
+      <c r="N91" s="21">
         <v>89</v>
       </c>
       <c r="O91" s="18">
@@ -14029,17 +14029,17 @@
       <c r="P91" s="18">
         <v>26.348597417467083</v>
       </c>
-      <c r="Q91" s="23">
+      <c r="Q91" s="22">
         <v>60</v>
       </c>
-      <c r="R91" s="23">
+      <c r="R91" s="22">
         <v>381.65511099802814</v>
       </c>
-      <c r="S91" s="23">
+      <c r="S91" s="22">
         <v>67.415730337078656</v>
       </c>
-      <c r="T91" s="9">
-        <v>20.81</v>
+      <c r="T91" s="22">
+        <v>22.45</v>
       </c>
       <c r="U91" s="9">
         <v>0.82255</v>
@@ -14056,7 +14056,7 @@
       <c r="Y91" s="9">
         <v>6.49</v>
       </c>
-      <c r="Z91" s="21">
+      <c r="Z91" s="20">
         <v>8.4400000000000002E-4</v>
       </c>
       <c r="AA91" s="10">
@@ -14153,7 +14153,7 @@
       <c r="M92" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N92" s="22">
+      <c r="N92" s="21">
         <v>81</v>
       </c>
       <c r="O92" s="18">
@@ -14162,17 +14162,17 @@
       <c r="P92" s="18">
         <v>20.711952032496626</v>
       </c>
-      <c r="Q92" s="23">
+      <c r="Q92" s="22">
         <v>52</v>
       </c>
-      <c r="R92" s="23">
+      <c r="R92" s="22">
         <v>505.33026248019979</v>
       </c>
-      <c r="S92" s="23">
+      <c r="S92" s="22">
         <v>64.197530864197532</v>
       </c>
-      <c r="T92" s="9">
-        <v>14.23</v>
+      <c r="T92" s="22">
+        <v>15.1</v>
       </c>
       <c r="U92" s="9">
         <v>0.85524999999999984</v>
@@ -14189,7 +14189,7 @@
       <c r="Y92" s="9">
         <v>6.26</v>
       </c>
-      <c r="Z92" s="21">
+      <c r="Z92" s="20">
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="AA92" s="10">
@@ -14286,7 +14286,7 @@
       <c r="M93" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N93" s="22">
+      <c r="N93" s="21">
         <v>81</v>
       </c>
       <c r="O93" s="18">
@@ -14295,17 +14295,17 @@
       <c r="P93" s="18">
         <v>20.711952032496626</v>
       </c>
-      <c r="Q93" s="23">
+      <c r="Q93" s="22">
         <v>52</v>
       </c>
-      <c r="R93" s="23">
+      <c r="R93" s="22">
         <v>505.33026248019979</v>
       </c>
-      <c r="S93" s="23">
+      <c r="S93" s="22">
         <v>64.197530864197532</v>
       </c>
-      <c r="T93" s="9">
-        <v>14.23</v>
+      <c r="T93" s="22">
+        <v>15.1</v>
       </c>
       <c r="U93" s="9">
         <v>0.85524999999999984</v>
@@ -14322,7 +14322,7 @@
       <c r="Y93" s="9">
         <v>6.34</v>
       </c>
-      <c r="Z93" s="21">
+      <c r="Z93" s="20">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="AA93" s="10">
@@ -14422,7 +14422,7 @@
       <c r="M94" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N94" s="22">
+      <c r="N94" s="21">
         <v>0</v>
       </c>
       <c r="O94" s="18">
@@ -14431,16 +14431,16 @@
       <c r="P94" s="18">
         <v>0</v>
       </c>
-      <c r="Q94" s="23">
-        <v>0</v>
-      </c>
-      <c r="R94" s="23">
-        <v>0</v>
-      </c>
-      <c r="S94" s="23">
-        <v>0</v>
-      </c>
-      <c r="T94" s="9">
+      <c r="Q94" s="22">
+        <v>0</v>
+      </c>
+      <c r="R94" s="22">
+        <v>0</v>
+      </c>
+      <c r="S94" s="22">
+        <v>0</v>
+      </c>
+      <c r="T94" s="22">
         <v>0</v>
       </c>
       <c r="U94" s="9">
@@ -14458,7 +14458,7 @@
       <c r="Y94" s="9">
         <v>6.92</v>
       </c>
-      <c r="Z94" s="21">
+      <c r="Z94" s="20">
         <v>6.3699999999999998E-4</v>
       </c>
       <c r="AA94" s="10">
@@ -14558,7 +14558,7 @@
       <c r="M95" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N95" s="22">
+      <c r="N95" s="21">
         <v>0</v>
       </c>
       <c r="O95" s="18">
@@ -14567,16 +14567,16 @@
       <c r="P95" s="18">
         <v>0</v>
       </c>
-      <c r="Q95" s="23">
-        <v>0</v>
-      </c>
-      <c r="R95" s="23">
-        <v>0</v>
-      </c>
-      <c r="S95" s="23">
-        <v>0</v>
-      </c>
-      <c r="T95" s="9">
+      <c r="Q95" s="22">
+        <v>0</v>
+      </c>
+      <c r="R95" s="22">
+        <v>0</v>
+      </c>
+      <c r="S95" s="22">
+        <v>0</v>
+      </c>
+      <c r="T95" s="22">
         <v>0</v>
       </c>
       <c r="U95" s="9">
@@ -14594,7 +14594,7 @@
       <c r="Y95" s="9">
         <v>6.37</v>
       </c>
-      <c r="Z95" s="21">
+      <c r="Z95" s="20">
         <v>9.990000000000001E-4</v>
       </c>
       <c r="AA95" s="10">
@@ -14694,7 +14694,7 @@
       <c r="M96" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N96" s="22">
+      <c r="N96" s="21">
         <v>0</v>
       </c>
       <c r="O96" s="18">
@@ -14703,16 +14703,16 @@
       <c r="P96" s="18">
         <v>0</v>
       </c>
-      <c r="Q96" s="23">
-        <v>0</v>
-      </c>
-      <c r="R96" s="23">
-        <v>0</v>
-      </c>
-      <c r="S96" s="23">
-        <v>0</v>
-      </c>
-      <c r="T96" s="9">
+      <c r="Q96" s="22">
+        <v>0</v>
+      </c>
+      <c r="R96" s="22">
+        <v>0</v>
+      </c>
+      <c r="S96" s="22">
+        <v>0</v>
+      </c>
+      <c r="T96" s="22">
         <v>0</v>
       </c>
       <c r="U96" s="9">
@@ -14730,7 +14730,7 @@
       <c r="Y96" s="9">
         <v>6.42</v>
       </c>
-      <c r="Z96" s="21">
+      <c r="Z96" s="20">
         <v>1.0150000000000001E-3</v>
       </c>
       <c r="AA96" s="10">
@@ -14830,7 +14830,7 @@
       <c r="M97" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N97" s="22">
+      <c r="N97" s="21">
         <v>0</v>
       </c>
       <c r="O97" s="18">
@@ -14839,16 +14839,16 @@
       <c r="P97" s="18">
         <v>0</v>
       </c>
-      <c r="Q97" s="23">
-        <v>0</v>
-      </c>
-      <c r="R97" s="23">
-        <v>0</v>
-      </c>
-      <c r="S97" s="23">
-        <v>0</v>
-      </c>
-      <c r="T97" s="9">
+      <c r="Q97" s="22">
+        <v>0</v>
+      </c>
+      <c r="R97" s="22">
+        <v>0</v>
+      </c>
+      <c r="S97" s="22">
+        <v>0</v>
+      </c>
+      <c r="T97" s="22">
         <v>0</v>
       </c>
       <c r="U97" s="9">
@@ -14866,7 +14866,7 @@
       <c r="Y97" s="9">
         <v>6.64</v>
       </c>
-      <c r="Z97" s="21">
+      <c r="Z97" s="20">
         <v>7.4200000000000004E-4</v>
       </c>
       <c r="AA97" s="10">
@@ -14966,7 +14966,7 @@
       <c r="M98" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N98" s="22">
+      <c r="N98" s="21">
         <v>32</v>
       </c>
       <c r="O98" s="18">
@@ -14975,16 +14975,16 @@
       <c r="P98" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q98" s="23">
+      <c r="Q98" s="22">
         <v>31</v>
       </c>
-      <c r="R98" s="23">
+      <c r="R98" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S98" s="23">
+      <c r="S98" s="22">
         <v>96.875</v>
       </c>
-      <c r="T98" s="9">
+      <c r="T98" s="22">
         <v>20.53</v>
       </c>
       <c r="U98" s="9">
@@ -15002,7 +15002,7 @@
       <c r="Y98" s="9">
         <v>6.92</v>
       </c>
-      <c r="Z98" s="21">
+      <c r="Z98" s="20">
         <v>6.5799999999999995E-4</v>
       </c>
       <c r="AA98" s="10">
@@ -15102,7 +15102,7 @@
       <c r="M99" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N99" s="22">
+      <c r="N99" s="21">
         <v>32</v>
       </c>
       <c r="O99" s="18">
@@ -15111,16 +15111,16 @@
       <c r="P99" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q99" s="23">
+      <c r="Q99" s="22">
         <v>31</v>
       </c>
-      <c r="R99" s="23">
+      <c r="R99" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S99" s="23">
+      <c r="S99" s="22">
         <v>96.875</v>
       </c>
-      <c r="T99" s="9">
+      <c r="T99" s="22">
         <v>20.53</v>
       </c>
       <c r="U99" s="9">
@@ -15138,7 +15138,7 @@
       <c r="Y99" s="9">
         <v>7.17</v>
       </c>
-      <c r="Z99" s="21">
+      <c r="Z99" s="20">
         <v>7.0100000000000002E-4</v>
       </c>
       <c r="AA99" s="10">
@@ -15238,7 +15238,7 @@
       <c r="M100" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N100" s="22">
+      <c r="N100" s="21">
         <v>32</v>
       </c>
       <c r="O100" s="18">
@@ -15247,16 +15247,16 @@
       <c r="P100" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q100" s="23">
+      <c r="Q100" s="22">
         <v>31</v>
       </c>
-      <c r="R100" s="23">
+      <c r="R100" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S100" s="23">
+      <c r="S100" s="22">
         <v>96.875</v>
       </c>
-      <c r="T100" s="9">
+      <c r="T100" s="22">
         <v>20.53</v>
       </c>
       <c r="U100" s="9">
@@ -15274,7 +15274,7 @@
       <c r="Y100" s="9">
         <v>6.79</v>
       </c>
-      <c r="Z100" s="21">
+      <c r="Z100" s="20">
         <v>6.9899999999999997E-4</v>
       </c>
       <c r="AA100" s="10">
@@ -15374,7 +15374,7 @@
       <c r="M101" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N101" s="22">
+      <c r="N101" s="21">
         <v>32</v>
       </c>
       <c r="O101" s="18">
@@ -15383,16 +15383,16 @@
       <c r="P101" s="18">
         <v>17.595392008237749</v>
       </c>
-      <c r="Q101" s="23">
+      <c r="Q101" s="22">
         <v>31</v>
       </c>
-      <c r="R101" s="23">
+      <c r="R101" s="22">
         <v>443.35116272417832</v>
       </c>
-      <c r="S101" s="23">
+      <c r="S101" s="22">
         <v>96.875</v>
       </c>
-      <c r="T101" s="9">
+      <c r="T101" s="22">
         <v>20.53</v>
       </c>
       <c r="U101" s="9">
@@ -15410,7 +15410,7 @@
       <c r="Y101" s="9">
         <v>5.69</v>
       </c>
-      <c r="Z101" s="21">
+      <c r="Z101" s="20">
         <v>7.5699999999999997E-4</v>
       </c>
       <c r="AA101" s="10">
@@ -15507,7 +15507,7 @@
       <c r="M102" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N102" s="22">
+      <c r="N102" s="21">
         <v>112</v>
       </c>
       <c r="O102" s="18">
@@ -15516,17 +15516,17 @@
       <c r="P102" s="18">
         <v>26.874558700148693</v>
       </c>
-      <c r="Q102" s="23">
+      <c r="Q102" s="22">
         <v>92</v>
       </c>
-      <c r="R102" s="23">
+      <c r="R102" s="22">
         <v>764.22750720616705</v>
       </c>
-      <c r="S102" s="23">
+      <c r="S102" s="22">
         <v>82.142857142857139</v>
       </c>
-      <c r="T102" s="9">
-        <v>15.7</v>
+      <c r="T102" s="22">
+        <v>17.239999999999998</v>
       </c>
       <c r="U102" s="9">
         <v>0.73997500000000005</v>
@@ -15543,7 +15543,7 @@
       <c r="Y102" s="9">
         <v>6.96</v>
       </c>
-      <c r="Z102" s="21">
+      <c r="Z102" s="20">
         <v>1.4710000000000001E-3</v>
       </c>
       <c r="AA102" s="10">
@@ -15640,7 +15640,7 @@
       <c r="M103" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N103" s="22">
+      <c r="N103" s="21">
         <v>112</v>
       </c>
       <c r="O103" s="18">
@@ -15649,17 +15649,17 @@
       <c r="P103" s="18">
         <v>26.874558700148693</v>
       </c>
-      <c r="Q103" s="23">
+      <c r="Q103" s="22">
         <v>92</v>
       </c>
-      <c r="R103" s="23">
+      <c r="R103" s="22">
         <v>764.22750720616705</v>
       </c>
-      <c r="S103" s="23">
+      <c r="S103" s="22">
         <v>82.142857142857139</v>
       </c>
-      <c r="T103" s="9">
-        <v>15.7</v>
+      <c r="T103" s="22">
+        <v>17.239999999999998</v>
       </c>
       <c r="U103" s="9">
         <v>0.73997500000000005</v>
@@ -15676,7 +15676,7 @@
       <c r="Y103" s="9">
         <v>7.07</v>
       </c>
-      <c r="Z103" s="21">
+      <c r="Z103" s="20">
         <v>7.0799999999999997E-4</v>
       </c>
       <c r="AA103" s="10">
@@ -15776,7 +15776,7 @@
       <c r="M104" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N104" s="22">
+      <c r="N104" s="21">
         <v>0</v>
       </c>
       <c r="O104" s="18">
@@ -15785,16 +15785,16 @@
       <c r="P104" s="18">
         <v>0</v>
       </c>
-      <c r="Q104" s="23">
-        <v>0</v>
-      </c>
-      <c r="R104" s="23">
-        <v>0</v>
-      </c>
-      <c r="S104" s="23">
-        <v>0</v>
-      </c>
-      <c r="T104" s="9">
+      <c r="Q104" s="22">
+        <v>0</v>
+      </c>
+      <c r="R104" s="22">
+        <v>0</v>
+      </c>
+      <c r="S104" s="22">
+        <v>0</v>
+      </c>
+      <c r="T104" s="22">
         <v>0</v>
       </c>
       <c r="U104" s="9">
@@ -15812,7 +15812,7 @@
       <c r="Y104" s="9">
         <v>7.11</v>
       </c>
-      <c r="Z104" s="21">
+      <c r="Z104" s="20">
         <v>9.4499999999999998E-4</v>
       </c>
       <c r="AA104" s="10">
@@ -15912,7 +15912,7 @@
       <c r="M105" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N105" s="22">
+      <c r="N105" s="21">
         <v>0</v>
       </c>
       <c r="O105" s="18">
@@ -15921,16 +15921,16 @@
       <c r="P105" s="18">
         <v>0</v>
       </c>
-      <c r="Q105" s="23">
-        <v>0</v>
-      </c>
-      <c r="R105" s="23">
-        <v>0</v>
-      </c>
-      <c r="S105" s="23">
-        <v>0</v>
-      </c>
-      <c r="T105" s="9">
+      <c r="Q105" s="22">
+        <v>0</v>
+      </c>
+      <c r="R105" s="22">
+        <v>0</v>
+      </c>
+      <c r="S105" s="22">
+        <v>0</v>
+      </c>
+      <c r="T105" s="22">
         <v>0</v>
       </c>
       <c r="U105" s="9">
@@ -15948,7 +15948,7 @@
       <c r="Y105" s="9">
         <v>7.41</v>
       </c>
-      <c r="Z105" s="21">
+      <c r="Z105" s="20">
         <v>7.27E-4</v>
       </c>
       <c r="AA105" s="10">
@@ -16048,7 +16048,7 @@
       <c r="M106" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N106" s="22">
+      <c r="N106" s="21">
         <v>0</v>
       </c>
       <c r="O106" s="18">
@@ -16057,16 +16057,16 @@
       <c r="P106" s="18">
         <v>0</v>
       </c>
-      <c r="Q106" s="23">
-        <v>0</v>
-      </c>
-      <c r="R106" s="23">
-        <v>0</v>
-      </c>
-      <c r="S106" s="23">
-        <v>0</v>
-      </c>
-      <c r="T106" s="9">
+      <c r="Q106" s="22">
+        <v>0</v>
+      </c>
+      <c r="R106" s="22">
+        <v>0</v>
+      </c>
+      <c r="S106" s="22">
+        <v>0</v>
+      </c>
+      <c r="T106" s="22">
         <v>0</v>
       </c>
       <c r="U106" s="9">
@@ -16084,7 +16084,7 @@
       <c r="Y106" s="9">
         <v>6.54</v>
       </c>
-      <c r="Z106" s="21">
+      <c r="Z106" s="20">
         <v>1.4090000000000001E-3</v>
       </c>
       <c r="AA106" s="10">
@@ -16184,7 +16184,7 @@
       <c r="M107" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N107" s="22">
+      <c r="N107" s="21">
         <v>0</v>
       </c>
       <c r="O107" s="18">
@@ -16193,16 +16193,16 @@
       <c r="P107" s="18">
         <v>0</v>
       </c>
-      <c r="Q107" s="23">
-        <v>0</v>
-      </c>
-      <c r="R107" s="23">
-        <v>0</v>
-      </c>
-      <c r="S107" s="23">
-        <v>0</v>
-      </c>
-      <c r="T107" s="9">
+      <c r="Q107" s="22">
+        <v>0</v>
+      </c>
+      <c r="R107" s="22">
+        <v>0</v>
+      </c>
+      <c r="S107" s="22">
+        <v>0</v>
+      </c>
+      <c r="T107" s="22">
         <v>0</v>
       </c>
       <c r="U107" s="9">
@@ -16220,7 +16220,7 @@
       <c r="Y107" s="9">
         <v>6.98</v>
       </c>
-      <c r="Z107" s="21">
+      <c r="Z107" s="20">
         <v>2.1649999999999998E-3</v>
       </c>
       <c r="AA107" s="10">
@@ -16320,7 +16320,7 @@
       <c r="M108" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N108" s="22">
+      <c r="N108" s="21">
         <v>54</v>
       </c>
       <c r="O108" s="18">
@@ -16329,16 +16329,16 @@
       <c r="P108" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q108" s="23">
+      <c r="Q108" s="22">
         <v>44</v>
       </c>
-      <c r="R108" s="23">
+      <c r="R108" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S108" s="23">
+      <c r="S108" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T108" s="9">
+      <c r="T108" s="22">
         <v>20</v>
       </c>
       <c r="U108" s="9">
@@ -16356,7 +16356,7 @@
       <c r="Y108" s="9">
         <v>5.72</v>
       </c>
-      <c r="Z108" s="21">
+      <c r="Z108" s="20">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="AA108" s="10">
@@ -16456,7 +16456,7 @@
       <c r="M109" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N109" s="22">
+      <c r="N109" s="21">
         <v>54</v>
       </c>
       <c r="O109" s="18">
@@ -16465,16 +16465,16 @@
       <c r="P109" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q109" s="23">
+      <c r="Q109" s="22">
         <v>44</v>
       </c>
-      <c r="R109" s="23">
+      <c r="R109" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S109" s="23">
+      <c r="S109" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T109" s="9">
+      <c r="T109" s="22">
         <v>20</v>
       </c>
       <c r="U109" s="9">
@@ -16492,7 +16492,7 @@
       <c r="Y109" s="9">
         <v>7.14</v>
       </c>
-      <c r="Z109" s="21">
+      <c r="Z109" s="20">
         <v>9.0399999999999996E-4</v>
       </c>
       <c r="AA109" s="10">
@@ -16592,7 +16592,7 @@
       <c r="M110" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N110" s="22">
+      <c r="N110" s="21">
         <v>54</v>
       </c>
       <c r="O110" s="18">
@@ -16601,16 +16601,16 @@
       <c r="P110" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q110" s="23">
+      <c r="Q110" s="22">
         <v>44</v>
       </c>
-      <c r="R110" s="23">
+      <c r="R110" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S110" s="23">
+      <c r="S110" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T110" s="9">
+      <c r="T110" s="22">
         <v>20</v>
       </c>
       <c r="U110" s="9">
@@ -16628,7 +16628,7 @@
       <c r="Y110" s="9">
         <v>6.69</v>
       </c>
-      <c r="Z110" s="21">
+      <c r="Z110" s="20">
         <v>1.601E-3</v>
       </c>
       <c r="AA110" s="10">
@@ -16728,7 +16728,7 @@
       <c r="M111" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N111" s="22">
+      <c r="N111" s="21">
         <v>54</v>
       </c>
       <c r="O111" s="18">
@@ -16737,16 +16737,16 @@
       <c r="P111" s="18">
         <v>16.693421681808868</v>
       </c>
-      <c r="Q111" s="23">
+      <c r="Q111" s="22">
         <v>44</v>
       </c>
-      <c r="R111" s="23">
+      <c r="R111" s="22">
         <v>375.70872327344767</v>
       </c>
-      <c r="S111" s="23">
+      <c r="S111" s="22">
         <v>81.481481481481481</v>
       </c>
-      <c r="T111" s="9">
+      <c r="T111" s="22">
         <v>20</v>
       </c>
       <c r="U111" s="9">
@@ -16764,7 +16764,7 @@
       <c r="Y111" s="9">
         <v>6.8</v>
       </c>
-      <c r="Z111" s="21">
+      <c r="Z111" s="20">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="AA111" s="10">
@@ -16861,7 +16861,7 @@
       <c r="M112" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N112" s="22">
+      <c r="N112" s="21">
         <v>89</v>
       </c>
       <c r="O112" s="18">
@@ -16870,17 +16870,17 @@
       <c r="P112" s="18">
         <v>30.098839814294021</v>
       </c>
-      <c r="Q112" s="23">
+      <c r="Q112" s="22">
         <v>59</v>
       </c>
-      <c r="R112" s="23">
+      <c r="R112" s="22">
         <v>562.45650495247719</v>
       </c>
-      <c r="S112" s="23">
+      <c r="S112" s="22">
         <v>66.292134831460672</v>
       </c>
-      <c r="T112" s="9">
-        <v>16.79</v>
+      <c r="T112" s="22">
+        <v>19.93</v>
       </c>
       <c r="U112" s="9">
         <v>0.69772500000000004</v>
@@ -16897,7 +16897,7 @@
       <c r="Y112" s="9">
         <v>5.89</v>
       </c>
-      <c r="Z112" s="21">
+      <c r="Z112" s="20">
         <v>1.521E-3</v>
       </c>
       <c r="AA112" s="10">
@@ -16994,7 +16994,7 @@
       <c r="M113" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N113" s="22">
+      <c r="N113" s="21">
         <v>89</v>
       </c>
       <c r="O113" s="18">
@@ -17003,17 +17003,17 @@
       <c r="P113" s="18">
         <v>30.098839814294021</v>
       </c>
-      <c r="Q113" s="23">
+      <c r="Q113" s="22">
         <v>59</v>
       </c>
-      <c r="R113" s="23">
+      <c r="R113" s="22">
         <v>562.45650495247719</v>
       </c>
-      <c r="S113" s="23">
+      <c r="S113" s="22">
         <v>66.292134831460672</v>
       </c>
-      <c r="T113" s="9">
-        <v>16.79</v>
+      <c r="T113" s="22">
+        <v>19.93</v>
       </c>
       <c r="U113" s="9">
         <v>0</v>
@@ -17030,7 +17030,7 @@
       <c r="Y113" s="9">
         <v>6.48</v>
       </c>
-      <c r="Z113" s="21">
+      <c r="Z113" s="20">
         <v>6.9099999999999999E-4</v>
       </c>
       <c r="AA113" s="10">
@@ -17130,7 +17130,7 @@
       <c r="M114" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N114" s="22">
+      <c r="N114" s="21">
         <v>0</v>
       </c>
       <c r="O114" s="18">
@@ -17139,16 +17139,16 @@
       <c r="P114" s="18">
         <v>0</v>
       </c>
-      <c r="Q114" s="23">
-        <v>0</v>
-      </c>
-      <c r="R114" s="23">
-        <v>0</v>
-      </c>
-      <c r="S114" s="23">
-        <v>0</v>
-      </c>
-      <c r="T114" s="9">
+      <c r="Q114" s="22">
+        <v>0</v>
+      </c>
+      <c r="R114" s="22">
+        <v>0</v>
+      </c>
+      <c r="S114" s="22">
+        <v>0</v>
+      </c>
+      <c r="T114" s="22">
         <v>0</v>
       </c>
       <c r="U114" s="9">
@@ -17166,7 +17166,7 @@
       <c r="Y114" s="9">
         <v>6.95</v>
       </c>
-      <c r="Z114" s="21">
+      <c r="Z114" s="20">
         <v>6.9300000000000004E-4</v>
       </c>
       <c r="AA114" s="10">
@@ -17266,7 +17266,7 @@
       <c r="M115" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="22">
+      <c r="N115" s="21">
         <v>0</v>
       </c>
       <c r="O115" s="18">
@@ -17275,16 +17275,16 @@
       <c r="P115" s="18">
         <v>0</v>
       </c>
-      <c r="Q115" s="23">
-        <v>0</v>
-      </c>
-      <c r="R115" s="23">
-        <v>0</v>
-      </c>
-      <c r="S115" s="23">
-        <v>0</v>
-      </c>
-      <c r="T115" s="9">
+      <c r="Q115" s="22">
+        <v>0</v>
+      </c>
+      <c r="R115" s="22">
+        <v>0</v>
+      </c>
+      <c r="S115" s="22">
+        <v>0</v>
+      </c>
+      <c r="T115" s="22">
         <v>0</v>
       </c>
       <c r="U115" s="9">
@@ -17302,7 +17302,7 @@
       <c r="Y115" s="9">
         <v>6.63</v>
       </c>
-      <c r="Z115" s="21">
+      <c r="Z115" s="20">
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="AA115" s="10">
@@ -17402,7 +17402,7 @@
       <c r="M116" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N116" s="22">
+      <c r="N116" s="21">
         <v>0</v>
       </c>
       <c r="O116" s="18">
@@ -17411,16 +17411,16 @@
       <c r="P116" s="18">
         <v>0</v>
       </c>
-      <c r="Q116" s="23">
-        <v>0</v>
-      </c>
-      <c r="R116" s="23">
-        <v>0</v>
-      </c>
-      <c r="S116" s="23">
-        <v>0</v>
-      </c>
-      <c r="T116" s="9">
+      <c r="Q116" s="22">
+        <v>0</v>
+      </c>
+      <c r="R116" s="22">
+        <v>0</v>
+      </c>
+      <c r="S116" s="22">
+        <v>0</v>
+      </c>
+      <c r="T116" s="22">
         <v>0</v>
       </c>
       <c r="U116" s="9">
@@ -17438,7 +17438,7 @@
       <c r="Y116" s="9">
         <v>6.63</v>
       </c>
-      <c r="Z116" s="21">
+      <c r="Z116" s="20">
         <v>6.8800000000000003E-4</v>
       </c>
       <c r="AA116" s="10">
@@ -17538,7 +17538,7 @@
       <c r="M117" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N117" s="22">
+      <c r="N117" s="21">
         <v>0</v>
       </c>
       <c r="O117" s="18">
@@ -17547,16 +17547,16 @@
       <c r="P117" s="18">
         <v>0</v>
       </c>
-      <c r="Q117" s="23">
-        <v>0</v>
-      </c>
-      <c r="R117" s="23">
-        <v>0</v>
-      </c>
-      <c r="S117" s="23">
-        <v>0</v>
-      </c>
-      <c r="T117" s="9">
+      <c r="Q117" s="22">
+        <v>0</v>
+      </c>
+      <c r="R117" s="22">
+        <v>0</v>
+      </c>
+      <c r="S117" s="22">
+        <v>0</v>
+      </c>
+      <c r="T117" s="22">
         <v>0</v>
       </c>
       <c r="U117" s="9">
@@ -17574,7 +17574,7 @@
       <c r="Y117" s="9">
         <v>6.05</v>
       </c>
-      <c r="Z117" s="21">
+      <c r="Z117" s="20">
         <v>7.2099999999999996E-4</v>
       </c>
       <c r="AA117" s="10">
@@ -17674,7 +17674,7 @@
       <c r="M118" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N118" s="22">
+      <c r="N118" s="21">
         <v>58</v>
       </c>
       <c r="O118" s="18">
@@ -17683,17 +17683,17 @@
       <c r="P118" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q118" s="23">
+      <c r="Q118" s="22">
         <v>42</v>
       </c>
-      <c r="R118" s="23">
+      <c r="R118" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S118" s="23">
+      <c r="S118" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T118" s="9">
-        <v>17.399999999999999</v>
+      <c r="T118" s="22">
+        <v>19.52</v>
       </c>
       <c r="U118" s="9">
         <v>0.79235</v>
@@ -17710,7 +17710,7 @@
       <c r="Y118" s="9">
         <v>6.23</v>
       </c>
-      <c r="Z118" s="21">
+      <c r="Z118" s="20">
         <v>7.76E-4</v>
       </c>
       <c r="AA118" s="10">
@@ -17810,7 +17810,7 @@
       <c r="M119" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N119" s="22">
+      <c r="N119" s="21">
         <v>58</v>
       </c>
       <c r="O119" s="18">
@@ -17819,17 +17819,17 @@
       <c r="P119" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q119" s="23">
+      <c r="Q119" s="22">
         <v>42</v>
       </c>
-      <c r="R119" s="23">
+      <c r="R119" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S119" s="23">
+      <c r="S119" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T119" s="9">
-        <v>17.399999999999999</v>
+      <c r="T119" s="22">
+        <v>19.52</v>
       </c>
       <c r="U119" s="9">
         <v>0.79235</v>
@@ -17846,7 +17846,7 @@
       <c r="Y119" s="9">
         <v>6.46</v>
       </c>
-      <c r="Z119" s="21">
+      <c r="Z119" s="20">
         <v>9.7900000000000005E-4</v>
       </c>
       <c r="AA119" s="10">
@@ -17946,7 +17946,7 @@
       <c r="M120" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N120" s="22">
+      <c r="N120" s="21">
         <v>58</v>
       </c>
       <c r="O120" s="18">
@@ -17955,17 +17955,17 @@
       <c r="P120" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q120" s="23">
+      <c r="Q120" s="22">
         <v>42</v>
       </c>
-      <c r="R120" s="23">
+      <c r="R120" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S120" s="23">
+      <c r="S120" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T120" s="9">
-        <v>17.399999999999999</v>
+      <c r="T120" s="22">
+        <v>19.52</v>
       </c>
       <c r="U120" s="9">
         <v>0.80389999999999984</v>
@@ -17982,7 +17982,7 @@
       <c r="Y120" s="9">
         <v>6.71</v>
       </c>
-      <c r="Z120" s="21">
+      <c r="Z120" s="20">
         <v>1.041E-3</v>
       </c>
       <c r="AA120" s="10">
@@ -18082,7 +18082,7 @@
       <c r="M121" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N121" s="22">
+      <c r="N121" s="21">
         <v>58</v>
       </c>
       <c r="O121" s="18">
@@ -18091,17 +18091,17 @@
       <c r="P121" s="18">
         <v>23.712952731737261</v>
       </c>
-      <c r="Q121" s="23">
+      <c r="Q121" s="22">
         <v>42</v>
       </c>
-      <c r="R121" s="23">
+      <c r="R121" s="22">
         <v>468.7761593838942</v>
       </c>
-      <c r="S121" s="23">
+      <c r="S121" s="22">
         <v>72.41379310344827</v>
       </c>
-      <c r="T121" s="9">
-        <v>17.399999999999999</v>
+      <c r="T121" s="22">
+        <v>19.52</v>
       </c>
       <c r="U121" s="9">
         <v>0.80389999999999984</v>
@@ -18118,7 +18118,7 @@
       <c r="Y121" s="9">
         <v>6.52</v>
       </c>
-      <c r="Z121" s="21">
+      <c r="Z121" s="20">
         <v>7.1400000000000001E-4</v>
       </c>
       <c r="AA121" s="10">
@@ -18242,7 +18242,7 @@
       <c r="Y122" s="9">
         <v>5.44</v>
       </c>
-      <c r="Z122" s="21">
+      <c r="Z122" s="20">
         <v>3.259517001010391E-4</v>
       </c>
       <c r="AA122" s="10">
@@ -18367,7 +18367,7 @@
       <c r="Y123" s="9">
         <v>5.44</v>
       </c>
-      <c r="Z123" s="21">
+      <c r="Z123" s="20">
         <v>3.9503012831321914E-4</v>
       </c>
       <c r="AA123" s="10">
@@ -18492,7 +18492,7 @@
       <c r="Y124" s="9">
         <v>5.13</v>
       </c>
-      <c r="Z124" s="21">
+      <c r="Z124" s="20">
         <v>2.1779779181346857E-4</v>
       </c>
       <c r="AA124" s="10">
@@ -18617,7 +18617,7 @@
       <c r="Y125" s="9">
         <v>4.8099999999999996</v>
       </c>
-      <c r="Z125" s="21">
+      <c r="Z125" s="20">
         <v>3.836574103537689E-4</v>
       </c>
       <c r="AA125" s="10">
@@ -18728,7 +18728,7 @@
       <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
       <c r="S126" s="9"/>
-      <c r="T126" s="19">
+      <c r="T126" s="23">
         <v>43.512499999999996</v>
       </c>
       <c r="U126" s="9"/>
@@ -18740,7 +18740,7 @@
       <c r="Y126" s="9">
         <v>5.07</v>
       </c>
-      <c r="Z126" s="21">
+      <c r="Z126" s="20">
         <v>4.8813581158558379E-4</v>
       </c>
       <c r="AA126" s="10">
@@ -18851,7 +18851,7 @@
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
-      <c r="T127" s="19">
+      <c r="T127" s="23">
         <v>43.512499999999996</v>
       </c>
       <c r="U127" s="9"/>
@@ -18863,7 +18863,7 @@
       <c r="Y127" s="9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="Z127" s="21">
+      <c r="Z127" s="20">
         <v>3.9495993605003822E-4</v>
       </c>
       <c r="AA127" s="10">
@@ -18976,7 +18976,7 @@
       <c r="Q128" s="9"/>
       <c r="R128" s="9"/>
       <c r="S128" s="9"/>
-      <c r="T128" s="19">
+      <c r="T128" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U128" s="9"/>
@@ -18988,7 +18988,7 @@
       <c r="Y128" s="9">
         <v>4.95</v>
       </c>
-      <c r="Z128" s="21">
+      <c r="Z128" s="20">
         <v>2.8776210780261682E-4</v>
       </c>
       <c r="AA128" s="10">
@@ -19101,7 +19101,7 @@
       <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
       <c r="S129" s="9"/>
-      <c r="T129" s="19">
+      <c r="T129" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U129" s="9"/>
@@ -19113,7 +19113,7 @@
       <c r="Y129" s="9">
         <v>4.9400000000000004</v>
       </c>
-      <c r="Z129" s="21">
+      <c r="Z129" s="20">
         <v>3.6564689743941631E-4</v>
       </c>
       <c r="AA129" s="10">
@@ -19226,7 +19226,7 @@
       <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
       <c r="S130" s="9"/>
-      <c r="T130" s="19">
+      <c r="T130" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U130" s="9"/>
@@ -19238,7 +19238,7 @@
       <c r="Y130" s="9">
         <v>5.39</v>
       </c>
-      <c r="Z130" s="21">
+      <c r="Z130" s="20">
         <v>3.2915053850719609E-4</v>
       </c>
       <c r="AA130" s="10">
@@ -19351,7 +19351,7 @@
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
       <c r="S131" s="9"/>
-      <c r="T131" s="19">
+      <c r="T131" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U131" s="9"/>
@@ -19363,7 +19363,7 @@
       <c r="Y131" s="9">
         <v>5.48</v>
       </c>
-      <c r="Z131" s="21">
+      <c r="Z131" s="20">
         <v>2.4306854841325598E-4</v>
       </c>
       <c r="AA131" s="10">
@@ -19488,7 +19488,7 @@
       <c r="Y132" s="9">
         <v>5.44</v>
       </c>
-      <c r="Z132" s="21">
+      <c r="Z132" s="20">
         <v>4.4854407231066835E-4</v>
       </c>
       <c r="AA132" s="10">
@@ -19613,7 +19613,7 @@
       <c r="Y133" s="9">
         <v>5.3</v>
       </c>
-      <c r="Z133" s="21">
+      <c r="Z133" s="20">
         <v>4.9472048898601079E-4</v>
       </c>
       <c r="AA133" s="10">
@@ -19738,7 +19738,7 @@
       <c r="Y134" s="9">
         <v>5.29</v>
       </c>
-      <c r="Z134" s="21">
+      <c r="Z134" s="20">
         <v>3.5923891832576781E-4</v>
       </c>
       <c r="AA134" s="10">
@@ -19863,7 +19863,7 @@
       <c r="Y135" s="9">
         <v>5.31</v>
       </c>
-      <c r="Z135" s="21">
+      <c r="Z135" s="20">
         <v>4.5037751363307679E-4</v>
       </c>
       <c r="AA135" s="10">
@@ -19976,7 +19976,7 @@
       <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
       <c r="S136" s="9"/>
-      <c r="T136" s="19">
+      <c r="T136" s="23">
         <v>55.75</v>
       </c>
       <c r="U136" s="9"/>
@@ -19988,7 +19988,7 @@
       <c r="Y136" s="9">
         <v>5.36</v>
       </c>
-      <c r="Z136" s="21">
+      <c r="Z136" s="20">
         <v>5.0027464822293365E-4</v>
       </c>
       <c r="AA136" s="10">
@@ -20101,7 +20101,7 @@
       <c r="Q137" s="9"/>
       <c r="R137" s="9"/>
       <c r="S137" s="9"/>
-      <c r="T137" s="19">
+      <c r="T137" s="23">
         <v>55.75</v>
       </c>
       <c r="U137" s="9"/>
@@ -20113,7 +20113,7 @@
       <c r="Y137" s="9">
         <v>5.51</v>
       </c>
-      <c r="Z137" s="21">
+      <c r="Z137" s="20">
         <v>5.0234968704629434E-4</v>
       </c>
       <c r="AA137" s="10">
@@ -20226,7 +20226,7 @@
       <c r="Q138" s="9"/>
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
-      <c r="T138" s="19">
+      <c r="T138" s="23">
         <v>55.75</v>
       </c>
       <c r="U138" s="9"/>
@@ -20238,7 +20238,7 @@
       <c r="Y138" s="9">
         <v>5.38</v>
       </c>
-      <c r="Z138" s="21">
+      <c r="Z138" s="20">
         <v>5.3390263420607172E-4</v>
       </c>
       <c r="AA138" s="10">
@@ -20351,7 +20351,7 @@
       <c r="Q139" s="9"/>
       <c r="R139" s="9"/>
       <c r="S139" s="9"/>
-      <c r="T139" s="19">
+      <c r="T139" s="23">
         <v>55.75</v>
       </c>
       <c r="U139" s="9"/>
@@ -20363,7 +20363,7 @@
       <c r="Y139" s="9">
         <v>5.24</v>
       </c>
-      <c r="Z139" s="21">
+      <c r="Z139" s="20">
         <v>4.4643586937072761E-4</v>
       </c>
       <c r="AA139" s="10">
@@ -20474,7 +20474,7 @@
       <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
       <c r="S140" s="9"/>
-      <c r="T140" s="19">
+      <c r="T140" s="23">
         <v>48.859999999999992</v>
       </c>
       <c r="U140" s="9"/>
@@ -20486,7 +20486,7 @@
       <c r="Y140" s="9">
         <v>5.24</v>
       </c>
-      <c r="Z140" s="21">
+      <c r="Z140" s="20">
         <v>4.7612609225281314E-4</v>
       </c>
       <c r="AA140" s="10">
@@ -20597,7 +20597,7 @@
       <c r="Q141" s="9"/>
       <c r="R141" s="9"/>
       <c r="S141" s="9"/>
-      <c r="T141" s="19">
+      <c r="T141" s="23">
         <v>48.859999999999992</v>
       </c>
       <c r="U141" s="9"/>
@@ -20609,7 +20609,7 @@
       <c r="Y141" s="9">
         <v>5.43</v>
       </c>
-      <c r="Z141" s="21">
+      <c r="Z141" s="20">
         <v>4.7781648541325185E-4</v>
       </c>
       <c r="AA141" s="10">
@@ -20734,7 +20734,7 @@
       <c r="Y142" s="9">
         <v>5.49</v>
       </c>
-      <c r="Z142" s="21">
+      <c r="Z142" s="20">
         <v>5.9083184106344577E-4</v>
       </c>
       <c r="AA142" s="10">
@@ -20859,7 +20859,7 @@
       <c r="Y143" s="9">
         <v>5.67</v>
       </c>
-      <c r="Z143" s="21">
+      <c r="Z143" s="20">
         <v>3.9645060687972308E-4</v>
       </c>
       <c r="AA143" s="10">
@@ -20984,7 +20984,7 @@
       <c r="Y144" s="9">
         <v>5.43</v>
       </c>
-      <c r="Z144" s="21">
+      <c r="Z144" s="20">
         <v>5.6011451336177064E-4</v>
       </c>
       <c r="AA144" s="10">
@@ -21109,7 +21109,7 @@
       <c r="Y145" s="9">
         <v>5.49</v>
       </c>
-      <c r="Z145" s="21">
+      <c r="Z145" s="20">
         <v>6.2468749705079578E-4</v>
       </c>
       <c r="AA145" s="10">
@@ -21220,7 +21220,7 @@
       <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
       <c r="S146" s="9"/>
-      <c r="T146" s="19">
+      <c r="T146" s="23">
         <v>43.169230769230772</v>
       </c>
       <c r="U146" s="9"/>
@@ -21232,7 +21232,7 @@
       <c r="Y146" s="9">
         <v>5.34</v>
       </c>
-      <c r="Z146" s="21">
+      <c r="Z146" s="20">
         <v>3.0651936523398726E-4</v>
       </c>
       <c r="AA146" s="10">
@@ -21343,7 +21343,7 @@
       <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
-      <c r="T147" s="19">
+      <c r="T147" s="23">
         <v>43.169230769230772</v>
       </c>
       <c r="U147" s="9"/>
@@ -21355,7 +21355,7 @@
       <c r="Y147" s="9">
         <v>5.43</v>
       </c>
-      <c r="Z147" s="21">
+      <c r="Z147" s="20">
         <v>2.4682197334740375E-4</v>
       </c>
       <c r="AA147" s="10">
@@ -21468,7 +21468,7 @@
       <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
       <c r="S148" s="9"/>
-      <c r="T148" s="19">
+      <c r="T148" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U148" s="9"/>
@@ -21480,7 +21480,7 @@
       <c r="Y148" s="9">
         <v>5.72</v>
       </c>
-      <c r="Z148" s="21">
+      <c r="Z148" s="20">
         <v>3.1313118015923418E-4</v>
       </c>
       <c r="AA148" s="10">
@@ -21593,7 +21593,7 @@
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
       <c r="S149" s="9"/>
-      <c r="T149" s="19">
+      <c r="T149" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U149" s="9"/>
@@ -21605,7 +21605,7 @@
       <c r="Y149" s="9">
         <v>4.99</v>
       </c>
-      <c r="Z149" s="21">
+      <c r="Z149" s="20">
         <v>4.0078250982462167E-4</v>
       </c>
       <c r="AA149" s="10">
@@ -21718,7 +21718,7 @@
       <c r="Q150" s="9"/>
       <c r="R150" s="9"/>
       <c r="S150" s="9"/>
-      <c r="T150" s="19">
+      <c r="T150" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U150" s="9"/>
@@ -21730,7 +21730,7 @@
       <c r="Y150" s="9">
         <v>5.37</v>
       </c>
-      <c r="Z150" s="21">
+      <c r="Z150" s="20">
         <v>3.248484449253685E-4</v>
       </c>
       <c r="AA150" s="10">
@@ -21843,7 +21843,7 @@
       <c r="Q151" s="9"/>
       <c r="R151" s="9"/>
       <c r="S151" s="9"/>
-      <c r="T151" s="19">
+      <c r="T151" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U151" s="9"/>
@@ -21855,7 +21855,7 @@
       <c r="Y151" s="9">
         <v>5.41</v>
       </c>
-      <c r="Z151" s="21">
+      <c r="Z151" s="20">
         <v>3.4520515887679379E-4</v>
       </c>
       <c r="AA151" s="10">
@@ -21980,7 +21980,7 @@
       <c r="Y152" s="9">
         <v>5.59</v>
       </c>
-      <c r="Z152" s="21">
+      <c r="Z152" s="20">
         <v>4.1056252130951748E-4</v>
       </c>
       <c r="AA152" s="10">
@@ -22105,7 +22105,7 @@
       <c r="Y153" s="9">
         <v>5.39</v>
       </c>
-      <c r="Z153" s="21">
+      <c r="Z153" s="20">
         <v>4.5212162905010599E-4</v>
       </c>
       <c r="AA153" s="10">
@@ -22230,7 +22230,7 @@
       <c r="Y154" s="9">
         <v>5.59</v>
       </c>
-      <c r="Z154" s="21">
+      <c r="Z154" s="20">
         <v>2.7956111303710095E-4</v>
       </c>
       <c r="AA154" s="10">
@@ -22355,7 +22355,7 @@
       <c r="Y155" s="9">
         <v>5.34</v>
       </c>
-      <c r="Z155" s="21">
+      <c r="Z155" s="20">
         <v>3.3784770701892426E-4</v>
       </c>
       <c r="AA155" s="10">
@@ -22468,7 +22468,7 @@
       <c r="Q156" s="9"/>
       <c r="R156" s="9"/>
       <c r="S156" s="9"/>
-      <c r="T156" s="19">
+      <c r="T156" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U156" s="9"/>
@@ -22480,7 +22480,7 @@
       <c r="Y156" s="9">
         <v>5.58</v>
       </c>
-      <c r="Z156" s="21">
+      <c r="Z156" s="20">
         <v>5.1343957398413125E-4</v>
       </c>
       <c r="AA156" s="10">
@@ -22593,7 +22593,7 @@
       <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
       <c r="S157" s="9"/>
-      <c r="T157" s="19">
+      <c r="T157" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U157" s="9"/>
@@ -22605,7 +22605,7 @@
       <c r="Y157" s="9">
         <v>5.66</v>
       </c>
-      <c r="Z157" s="21">
+      <c r="Z157" s="20">
         <v>5.2917343606829364E-4</v>
       </c>
       <c r="AA157" s="10">
@@ -22718,7 +22718,7 @@
       <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
       <c r="S158" s="9"/>
-      <c r="T158" s="19">
+      <c r="T158" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U158" s="9"/>
@@ -22730,7 +22730,7 @@
       <c r="Y158" s="9">
         <v>5.2</v>
       </c>
-      <c r="Z158" s="21">
+      <c r="Z158" s="20">
         <v>5.9365324054926625E-4</v>
       </c>
       <c r="AA158" s="10">
@@ -22843,7 +22843,7 @@
       <c r="Q159" s="9"/>
       <c r="R159" s="9"/>
       <c r="S159" s="9"/>
-      <c r="T159" s="19">
+      <c r="T159" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U159" s="9"/>
@@ -22855,7 +22855,7 @@
       <c r="Y159" s="9">
         <v>5.66</v>
       </c>
-      <c r="Z159" s="21">
+      <c r="Z159" s="20">
         <v>4.0613648916857113E-4</v>
       </c>
       <c r="AA159" s="10">
@@ -22966,7 +22966,7 @@
       <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
       <c r="S160" s="9"/>
-      <c r="T160" s="19">
+      <c r="T160" s="23">
         <v>47.667391304347831</v>
       </c>
       <c r="U160" s="9"/>
@@ -22978,7 +22978,7 @@
       <c r="Y160" s="9">
         <v>5.43</v>
       </c>
-      <c r="Z160" s="21">
+      <c r="Z160" s="20">
         <v>5.9721200393581919E-4</v>
       </c>
       <c r="AA160" s="10">
@@ -23089,7 +23089,7 @@
       <c r="Q161" s="9"/>
       <c r="R161" s="9"/>
       <c r="S161" s="9"/>
-      <c r="T161" s="19">
+      <c r="T161" s="23">
         <v>47.667391304347831</v>
       </c>
       <c r="U161" s="9"/>
@@ -23101,7 +23101,7 @@
       <c r="Y161" s="9">
         <v>5.43</v>
       </c>
-      <c r="Z161" s="21">
+      <c r="Z161" s="20">
         <v>3.6171370833835693E-4</v>
       </c>
       <c r="AA161" s="10">
@@ -23224,7 +23224,7 @@
         <v>0.5064620421818572</v>
       </c>
       <c r="Y162" s="9"/>
-      <c r="Z162" s="21"/>
+      <c r="Z162" s="20"/>
       <c r="AA162" s="10">
         <v>0.19881951808929443</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>0.57579910748056384</v>
       </c>
       <c r="Y163" s="9"/>
-      <c r="Z163" s="21"/>
+      <c r="Z163" s="20"/>
       <c r="AA163" s="10">
         <v>0.21204692125320435</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>0.66623875787018116</v>
       </c>
       <c r="Y164" s="9"/>
-      <c r="Z164" s="21"/>
+      <c r="Z164" s="20"/>
       <c r="AA164" s="10">
         <v>0.24323083460330963</v>
       </c>
@@ -23587,7 +23587,7 @@
         <v>0.56575025743727292</v>
       </c>
       <c r="Y165" s="9"/>
-      <c r="Z165" s="21"/>
+      <c r="Z165" s="20"/>
       <c r="AA165" s="10">
         <v>0.22288899123668671</v>
       </c>
@@ -23696,7 +23696,7 @@
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
-      <c r="T166" s="19">
+      <c r="T166" s="23">
         <v>43.512499999999996</v>
       </c>
       <c r="U166" s="9"/>
@@ -23706,7 +23706,7 @@
         <v>0.56675514244160208</v>
       </c>
       <c r="Y166" s="9"/>
-      <c r="Z166" s="21"/>
+      <c r="Z166" s="20"/>
       <c r="AA166" s="10">
         <v>0.22383423149585724</v>
       </c>
@@ -23815,7 +23815,7 @@
       <c r="Q167" s="9"/>
       <c r="R167" s="9"/>
       <c r="S167" s="9"/>
-      <c r="T167" s="19">
+      <c r="T167" s="23">
         <v>43.512499999999996</v>
       </c>
       <c r="U167" s="9"/>
@@ -23825,7 +23825,7 @@
         <v>0.57077468245891838</v>
       </c>
       <c r="Y167" s="9"/>
-      <c r="Z167" s="21"/>
+      <c r="Z167" s="20"/>
       <c r="AA167" s="10">
         <v>0.2138177752494812</v>
       </c>
@@ -23936,7 +23936,7 @@
       <c r="Q168" s="9"/>
       <c r="R168" s="9"/>
       <c r="S168" s="9"/>
-      <c r="T168" s="19">
+      <c r="T168" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U168" s="9"/>
@@ -23946,7 +23946,7 @@
         <v>0.53057928228575513</v>
       </c>
       <c r="Y168" s="9"/>
-      <c r="Z168" s="21"/>
+      <c r="Z168" s="20"/>
       <c r="AA168" s="10">
         <v>0.21374338865280151</v>
       </c>
@@ -24057,7 +24057,7 @@
       <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
       <c r="S169" s="9"/>
-      <c r="T169" s="19">
+      <c r="T169" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U169" s="9"/>
@@ -24067,7 +24067,7 @@
         <v>0.6240335876883597</v>
       </c>
       <c r="Y169" s="9"/>
-      <c r="Z169" s="21"/>
+      <c r="Z169" s="20"/>
       <c r="AA169" s="10">
         <v>0.23431818187236786</v>
       </c>
@@ -24178,7 +24178,7 @@
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
       <c r="S170" s="9"/>
-      <c r="T170" s="19">
+      <c r="T170" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U170" s="9"/>
@@ -24188,7 +24188,7 @@
         <v>0.50143761716021173</v>
       </c>
       <c r="Y170" s="9"/>
-      <c r="Z170" s="21"/>
+      <c r="Z170" s="20"/>
       <c r="AA170" s="10">
         <v>0.26784902811050415</v>
       </c>
@@ -24299,7 +24299,7 @@
       <c r="Q171" s="9"/>
       <c r="R171" s="9"/>
       <c r="S171" s="9"/>
-      <c r="T171" s="19">
+      <c r="T171" s="23">
         <v>47.762499999999996</v>
       </c>
       <c r="U171" s="9"/>
@@ -24309,7 +24309,7 @@
         <v>0.56675514244160208</v>
       </c>
       <c r="Y171" s="9"/>
-      <c r="Z171" s="21"/>
+      <c r="Z171" s="20"/>
       <c r="AA171" s="10">
         <v>0.23219507932662964</v>
       </c>
@@ -24430,7 +24430,7 @@
         <v>0.61800427766238519</v>
       </c>
       <c r="Y172" s="9"/>
-      <c r="Z172" s="21"/>
+      <c r="Z172" s="20"/>
       <c r="AA172" s="10">
         <v>0.29787907004356384</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>0.53459882230307143</v>
       </c>
       <c r="Y173" s="9"/>
-      <c r="Z173" s="21"/>
+      <c r="Z173" s="20"/>
       <c r="AA173" s="10">
         <v>0.23712384700775146</v>
       </c>
@@ -24672,7 +24672,7 @@
         <v>0.51349623721216076</v>
       </c>
       <c r="Y174" s="9"/>
-      <c r="Z174" s="21"/>
+      <c r="Z174" s="20"/>
       <c r="AA174" s="10">
         <v>0.28953030705451965</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>0.45521290696107397</v>
       </c>
       <c r="Y175" s="9"/>
-      <c r="Z175" s="21"/>
+      <c r="Z175" s="20"/>
       <c r="AA175" s="10">
         <v>0.23326808214187622</v>
       </c>
@@ -24904,7 +24904,7 @@
       <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
       <c r="S176" s="9"/>
-      <c r="T176" s="19">
+      <c r="T176" s="23">
         <v>55.75</v>
       </c>
       <c r="U176" s="9"/>
@@ -24914,7 +24914,7 @@
         <v>0.39291003669267094</v>
       </c>
       <c r="Y176" s="9"/>
-      <c r="Z176" s="21"/>
+      <c r="Z176" s="20"/>
       <c r="AA176" s="10">
         <v>0.22433507442474365</v>
       </c>
@@ -25025,7 +25025,7 @@
       <c r="Q177" s="9"/>
       <c r="R177" s="9"/>
       <c r="S177" s="9"/>
-      <c r="T177" s="19">
+      <c r="T177" s="23">
         <v>55.75</v>
       </c>
       <c r="U177" s="9"/>
@@ -25035,7 +25035,7 @@
         <v>0.54062813232904594</v>
       </c>
       <c r="Y177" s="9"/>
-      <c r="Z177" s="21"/>
+      <c r="Z177" s="20"/>
       <c r="AA177" s="10">
         <v>0.24817778170108795</v>
       </c>
@@ -25146,7 +25146,7 @@
       <c r="Q178" s="9"/>
       <c r="R178" s="9"/>
       <c r="S178" s="9"/>
-      <c r="T178" s="19">
+      <c r="T178" s="23">
         <v>55.75</v>
       </c>
       <c r="U178" s="9"/>
@@ -25156,7 +25156,7 @@
         <v>0.50847181219051529</v>
       </c>
       <c r="Y178" s="9"/>
-      <c r="Z178" s="21"/>
+      <c r="Z178" s="20"/>
       <c r="AA178" s="10">
         <v>0.25579071044921875</v>
       </c>
@@ -25267,7 +25267,7 @@
       <c r="Q179" s="9"/>
       <c r="R179" s="9"/>
       <c r="S179" s="9"/>
-      <c r="T179" s="19">
+      <c r="T179" s="23">
         <v>55.75</v>
       </c>
       <c r="U179" s="9"/>
@@ -25277,7 +25277,7 @@
         <v>0.50344738716886994</v>
       </c>
       <c r="Y179" s="9"/>
-      <c r="Z179" s="21"/>
+      <c r="Z179" s="20"/>
       <c r="AA179" s="10">
         <v>0.24997079372406006</v>
       </c>
@@ -25386,7 +25386,7 @@
       <c r="Q180" s="9"/>
       <c r="R180" s="9"/>
       <c r="S180" s="9"/>
-      <c r="T180" s="19">
+      <c r="T180" s="23">
         <v>48.859999999999992</v>
       </c>
       <c r="U180" s="9"/>
@@ -25396,7 +25396,7 @@
         <v>0.53057928228575513</v>
       </c>
       <c r="Y180" s="9"/>
-      <c r="Z180" s="21"/>
+      <c r="Z180" s="20"/>
       <c r="AA180" s="10">
         <v>0.25171732902526855</v>
       </c>
@@ -25505,7 +25505,7 @@
       <c r="Q181" s="9"/>
       <c r="R181" s="9"/>
       <c r="S181" s="9"/>
-      <c r="T181" s="19">
+      <c r="T181" s="23">
         <v>48.859999999999992</v>
       </c>
       <c r="U181" s="9"/>
@@ -25515,7 +25515,7 @@
         <v>0.49641319213856633</v>
       </c>
       <c r="Y181" s="9"/>
-      <c r="Z181" s="21"/>
+      <c r="Z181" s="20"/>
       <c r="AA181" s="10">
         <v>0.19169856607913971</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>0.60996519762775259</v>
       </c>
       <c r="Y182" s="9"/>
-      <c r="Z182" s="21"/>
+      <c r="Z182" s="20"/>
       <c r="AA182" s="10">
         <v>0.18293604254722595</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>0.5104815821991735</v>
       </c>
       <c r="Y183" s="9"/>
-      <c r="Z183" s="21"/>
+      <c r="Z183" s="20"/>
       <c r="AA183" s="10">
         <v>0.19645980000495911</v>
       </c>
@@ -25878,7 +25878,7 @@
         <v>0.50244250216454078</v>
       </c>
       <c r="Y184" s="9"/>
-      <c r="Z184" s="21"/>
+      <c r="Z184" s="20"/>
       <c r="AA184" s="10">
         <v>0.1952713280916214</v>
       </c>
@@ -25999,7 +25999,7 @@
         <v>0.52856951227709692</v>
       </c>
       <c r="Y185" s="9"/>
-      <c r="Z185" s="21"/>
+      <c r="Z185" s="20"/>
       <c r="AA185" s="10">
         <v>0.24056033790111542</v>
       </c>
@@ -26108,7 +26108,7 @@
       <c r="Q186" s="9"/>
       <c r="R186" s="9"/>
       <c r="S186" s="9"/>
-      <c r="T186" s="19">
+      <c r="T186" s="23">
         <v>43.169230769230772</v>
       </c>
       <c r="U186" s="9"/>
@@ -26118,7 +26118,7 @@
         <v>0.50244250216454078</v>
       </c>
       <c r="Y186" s="9"/>
-      <c r="Z186" s="21"/>
+      <c r="Z186" s="20"/>
       <c r="AA186" s="10">
         <v>0.21076427400112152</v>
       </c>
@@ -26227,7 +26227,7 @@
       <c r="Q187" s="9"/>
       <c r="R187" s="9"/>
       <c r="S187" s="9"/>
-      <c r="T187" s="19">
+      <c r="T187" s="23">
         <v>43.169230769230772</v>
       </c>
       <c r="U187" s="9"/>
@@ -26237,7 +26237,7 @@
         <v>0.48837411210393367</v>
       </c>
       <c r="Y187" s="9"/>
-      <c r="Z187" s="21"/>
+      <c r="Z187" s="20"/>
       <c r="AA187" s="10">
         <v>0.22526854276657104</v>
       </c>
@@ -26348,7 +26348,7 @@
       <c r="Q188" s="9"/>
       <c r="R188" s="9"/>
       <c r="S188" s="9"/>
-      <c r="T188" s="19">
+      <c r="T188" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U188" s="9"/>
@@ -26358,7 +26358,7 @@
         <v>0.54665744235502045</v>
       </c>
       <c r="Y188" s="9"/>
-      <c r="Z188" s="21"/>
+      <c r="Z188" s="20"/>
       <c r="AA188" s="10">
         <v>0.2531605064868927</v>
       </c>
@@ -26469,7 +26469,7 @@
       <c r="Q189" s="9"/>
       <c r="R189" s="9"/>
       <c r="S189" s="9"/>
-      <c r="T189" s="19">
+      <c r="T189" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U189" s="9"/>
@@ -26479,7 +26479,7 @@
         <v>0.47330083703899745</v>
       </c>
       <c r="Y189" s="9"/>
-      <c r="Z189" s="21"/>
+      <c r="Z189" s="20"/>
       <c r="AA189" s="10">
         <v>0.24033963680267334</v>
       </c>
@@ -26590,7 +26590,7 @@
       <c r="Q190" s="9"/>
       <c r="R190" s="9"/>
       <c r="S190" s="9"/>
-      <c r="T190" s="19">
+      <c r="T190" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U190" s="9"/>
@@ -26600,7 +26600,7 @@
         <v>0.47430572204332655</v>
       </c>
       <c r="Y190" s="9"/>
-      <c r="Z190" s="21"/>
+      <c r="Z190" s="20"/>
       <c r="AA190" s="10">
         <v>0.23132428526878357</v>
       </c>
@@ -26711,7 +26711,7 @@
       <c r="Q191" s="9"/>
       <c r="R191" s="9"/>
       <c r="S191" s="9"/>
-      <c r="T191" s="19">
+      <c r="T191" s="23">
         <v>51.127272727272725</v>
       </c>
       <c r="U191" s="9"/>
@@ -26721,7 +26721,7 @@
         <v>0.4381298618874796</v>
       </c>
       <c r="Y191" s="9"/>
-      <c r="Z191" s="21"/>
+      <c r="Z191" s="20"/>
       <c r="AA191" s="10">
         <v>0.25769945979118347</v>
       </c>
@@ -26842,7 +26842,7 @@
         <v>0.5476623273593495</v>
       </c>
       <c r="Y192" s="9"/>
-      <c r="Z192" s="21"/>
+      <c r="Z192" s="20"/>
       <c r="AA192" s="10">
         <v>0.19971968233585358</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>0.53861836232038773</v>
       </c>
       <c r="Y193" s="9"/>
-      <c r="Z193" s="21"/>
+      <c r="Z193" s="20"/>
       <c r="AA193" s="10">
         <v>0.19662949442863464</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>0.48837411210393367</v>
       </c>
       <c r="Y194" s="9"/>
-      <c r="Z194" s="21"/>
+      <c r="Z194" s="20"/>
       <c r="AA194" s="10">
         <v>0.20444419980049133</v>
       </c>
@@ -27205,7 +27205,7 @@
         <v>0.49038388211259187</v>
       </c>
       <c r="Y195" s="9"/>
-      <c r="Z195" s="21"/>
+      <c r="Z195" s="20"/>
       <c r="AA195" s="10">
         <v>0.18857777118682861</v>
       </c>
@@ -27316,7 +27316,7 @@
       <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
       <c r="S196" s="9"/>
-      <c r="T196" s="19">
+      <c r="T196" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U196" s="9"/>
@@ -27326,7 +27326,7 @@
         <v>0.46023733198271938</v>
       </c>
       <c r="Y196" s="9"/>
-      <c r="Z196" s="21"/>
+      <c r="Z196" s="20"/>
       <c r="AA196" s="10">
         <v>0.20308117568492889</v>
       </c>
@@ -27437,7 +27437,7 @@
       <c r="Q197" s="9"/>
       <c r="R197" s="9"/>
       <c r="S197" s="9"/>
-      <c r="T197" s="19">
+      <c r="T197" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U197" s="9"/>
@@ -27447,7 +27447,7 @@
         <v>0.46526175700436478</v>
       </c>
       <c r="Y197" s="9"/>
-      <c r="Z197" s="21"/>
+      <c r="Z197" s="20"/>
       <c r="AA197" s="10">
         <v>0.23835599422454834</v>
       </c>
@@ -27558,7 +27558,7 @@
       <c r="Q198" s="9"/>
       <c r="R198" s="9"/>
       <c r="S198" s="9"/>
-      <c r="T198" s="19">
+      <c r="T198" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U198" s="9"/>
@@ -27568,7 +27568,7 @@
         <v>0.45420802195674492</v>
       </c>
       <c r="Y198" s="9"/>
-      <c r="Z198" s="21"/>
+      <c r="Z198" s="20"/>
       <c r="AA198" s="10">
         <v>0.22851550579071045</v>
       </c>
@@ -27679,7 +27679,7 @@
       <c r="Q199" s="9"/>
       <c r="R199" s="9"/>
       <c r="S199" s="9"/>
-      <c r="T199" s="19">
+      <c r="T199" s="23">
         <v>54.616666666666667</v>
       </c>
       <c r="U199" s="9"/>
@@ -27689,7 +27689,7 @@
         <v>0.48937899710826277</v>
       </c>
       <c r="Y199" s="9"/>
-      <c r="Z199" s="21"/>
+      <c r="Z199" s="20"/>
       <c r="AA199" s="10">
         <v>0.19038493931293488</v>
       </c>
@@ -27798,7 +27798,7 @@
       <c r="Q200" s="9"/>
       <c r="R200" s="9"/>
       <c r="S200" s="9"/>
-      <c r="T200" s="19">
+      <c r="T200" s="23">
         <v>47.667391304347831</v>
       </c>
       <c r="U200" s="9"/>
@@ -27808,7 +27808,7 @@
         <v>0.45320313695241582</v>
       </c>
       <c r="Y200" s="9"/>
-      <c r="Z200" s="21"/>
+      <c r="Z200" s="20"/>
       <c r="AA200" s="10">
         <v>0.21417434513568878</v>
       </c>
@@ -27917,7 +27917,7 @@
       <c r="Q201" s="9"/>
       <c r="R201" s="9"/>
       <c r="S201" s="9"/>
-      <c r="T201" s="19">
+      <c r="T201" s="23">
         <v>47.667391304347831</v>
       </c>
       <c r="U201" s="9"/>
@@ -27927,7 +27927,7 @@
         <v>0.49540830713423728</v>
       </c>
       <c r="Y201" s="9"/>
-      <c r="Z201" s="21"/>
+      <c r="Z201" s="20"/>
       <c r="AA201" s="10">
         <v>0.2230973094701767</v>
       </c>
@@ -28043,7 +28043,7 @@
         <f>(Q202/N202)*100</f>
         <v>82.089552238805979</v>
       </c>
-      <c r="T202" s="9">
+      <c r="T202" s="21">
         <v>11.180753524551239</v>
       </c>
       <c r="U202" s="9"/>
@@ -28055,7 +28055,7 @@
       <c r="Y202" s="9">
         <v>5.34</v>
       </c>
-      <c r="Z202" s="21">
+      <c r="Z202" s="20">
         <v>4.5582936405534659E-3</v>
       </c>
       <c r="AA202" s="9">
@@ -28173,7 +28173,7 @@
         <f t="shared" ref="S203:S266" si="8">(Q203/N203)*100</f>
         <v>96.875</v>
       </c>
-      <c r="T203" s="9">
+      <c r="T203" s="21">
         <v>12.337989604002022</v>
       </c>
       <c r="U203" s="9"/>
@@ -28185,7 +28185,7 @@
       <c r="Y203" s="9">
         <v>5.28</v>
       </c>
-      <c r="Z203" s="21">
+      <c r="Z203" s="20">
         <v>5.4819992448565426E-3</v>
       </c>
       <c r="AA203" s="9">
@@ -28302,7 +28302,7 @@
       <c r="S204" s="9">
         <v>0</v>
       </c>
-      <c r="T204" s="9">
+      <c r="T204" s="21">
         <v>0</v>
       </c>
       <c r="U204" s="9"/>
@@ -28314,7 +28314,7 @@
       <c r="Y204" s="9">
         <v>5.67</v>
       </c>
-      <c r="Z204" s="21">
+      <c r="Z204" s="20">
         <v>2.0276861808262089E-3</v>
       </c>
       <c r="AA204" s="9">
@@ -28431,7 +28431,7 @@
       <c r="S205" s="9">
         <v>0</v>
       </c>
-      <c r="T205" s="9">
+      <c r="T205" s="21">
         <v>0</v>
       </c>
       <c r="U205" s="9"/>
@@ -28443,7 +28443,7 @@
       <c r="Y205" s="9">
         <v>5.47</v>
       </c>
-      <c r="Z205" s="21">
+      <c r="Z205" s="20">
         <v>4.2302367465535508E-3</v>
       </c>
       <c r="AA205" s="9">
@@ -28559,7 +28559,7 @@
         <f t="shared" si="8"/>
         <v>89.795918367346943</v>
       </c>
-      <c r="T206" s="9">
+      <c r="T206" s="21">
         <v>11.760401753664636</v>
       </c>
       <c r="U206" s="9"/>
@@ -28571,7 +28571,7 @@
       <c r="Y206" s="9">
         <v>5.42</v>
       </c>
-      <c r="Z206" s="21">
+      <c r="Z206" s="20">
         <v>1.0988145654471815E-2</v>
       </c>
       <c r="AA206" s="9">
@@ -28687,7 +28687,7 @@
         <f t="shared" si="8"/>
         <v>90.361445783132538</v>
       </c>
-      <c r="T207" s="9">
+      <c r="T207" s="21">
         <v>13.722607647504102</v>
       </c>
       <c r="U207" s="9"/>
@@ -28699,7 +28699,7 @@
       <c r="Y207" s="9">
         <v>5.52</v>
       </c>
-      <c r="Z207" s="21">
+      <c r="Z207" s="20">
         <v>6.2138403481271772E-3</v>
       </c>
       <c r="AA207" s="9">
@@ -28816,7 +28816,7 @@
       <c r="S208" s="9">
         <v>0</v>
       </c>
-      <c r="T208" s="9">
+      <c r="T208" s="21">
         <v>0</v>
       </c>
       <c r="U208" s="9"/>
@@ -28828,7 +28828,7 @@
       <c r="Y208" s="9">
         <v>5.45</v>
       </c>
-      <c r="Z208" s="21">
+      <c r="Z208" s="20">
         <v>3.4102999586553663E-3</v>
       </c>
       <c r="AA208" s="9">
@@ -28945,7 +28945,7 @@
       <c r="S209" s="9">
         <v>0</v>
       </c>
-      <c r="T209" s="9">
+      <c r="T209" s="21">
         <v>0</v>
       </c>
       <c r="U209" s="9"/>
@@ -28957,7 +28957,7 @@
       <c r="Y209" s="9">
         <v>5.16</v>
       </c>
-      <c r="Z209" s="21">
+      <c r="Z209" s="20">
         <v>3.2207565186622164E-3</v>
       </c>
       <c r="AA209" s="9">
@@ -29075,7 +29075,7 @@
         <f t="shared" si="8"/>
         <v>90.697674418604649</v>
       </c>
-      <c r="T210" s="9">
+      <c r="T210" s="21">
         <v>13.791701138349312</v>
       </c>
       <c r="U210" s="9"/>
@@ -29087,7 +29087,7 @@
       <c r="Y210" s="9">
         <v>5.71</v>
       </c>
-      <c r="Z210" s="21">
+      <c r="Z210" s="20">
         <v>1.0848275778424501E-2</v>
       </c>
       <c r="AA210" s="9">
@@ -29205,7 +29205,7 @@
         <f t="shared" si="8"/>
         <v>93.478260869565219</v>
       </c>
-      <c r="T211" s="9">
+      <c r="T211" s="21">
         <v>13.085304234207564</v>
       </c>
       <c r="U211" s="9"/>
@@ -29217,7 +29217,7 @@
       <c r="Y211" s="9">
         <v>5.67</v>
       </c>
-      <c r="Z211" s="21">
+      <c r="Z211" s="20">
         <v>6.811853347813035E-3</v>
       </c>
       <c r="AA211" s="9">
@@ -29335,7 +29335,7 @@
         <f t="shared" si="8"/>
         <v>94.285714285714278</v>
       </c>
-      <c r="T212" s="9">
+      <c r="T212" s="21">
         <v>13.568186262788499</v>
       </c>
       <c r="U212" s="9"/>
@@ -29347,7 +29347,7 @@
       <c r="Y212" s="9">
         <v>5.48</v>
       </c>
-      <c r="Z212" s="21">
+      <c r="Z212" s="20">
         <v>2.9987758223952881E-3</v>
       </c>
       <c r="AA212" s="9">
@@ -29465,7 +29465,7 @@
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="T213" s="9">
+      <c r="T213" s="21">
         <v>11.969724960055268</v>
       </c>
       <c r="U213" s="9"/>
@@ -29477,7 +29477,7 @@
       <c r="Y213" s="9">
         <v>5.35</v>
       </c>
-      <c r="Z213" s="21">
+      <c r="Z213" s="20">
         <v>8.7849990281226433E-4</v>
       </c>
       <c r="AA213" s="9">
@@ -29595,7 +29595,7 @@
         <f t="shared" si="8"/>
         <v>89.361702127659569</v>
       </c>
-      <c r="T214" s="9">
+      <c r="T214" s="21">
         <v>12.618616594417849</v>
       </c>
       <c r="U214" s="9"/>
@@ -29607,7 +29607,7 @@
       <c r="Y214" s="9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="Z214" s="21">
+      <c r="Z214" s="20">
         <v>5.7150424000731309E-3</v>
       </c>
       <c r="AA214" s="9">
@@ -29725,7 +29725,7 @@
         <f t="shared" si="8"/>
         <v>97.674418604651152</v>
       </c>
-      <c r="T215" s="9">
+      <c r="T215" s="21">
         <v>12.936705978948659</v>
       </c>
       <c r="U215" s="9"/>
@@ -29737,7 +29737,7 @@
       <c r="Y215" s="9">
         <v>5.07</v>
       </c>
-      <c r="Z215" s="21">
+      <c r="Z215" s="20">
         <v>1.1259044167361541E-3</v>
       </c>
       <c r="AA215" s="9">
@@ -29854,7 +29854,7 @@
       <c r="S216" s="9">
         <v>0</v>
       </c>
-      <c r="T216" s="9">
+      <c r="T216" s="21">
         <v>0</v>
       </c>
       <c r="U216" s="9"/>
@@ -29866,7 +29866,7 @@
       <c r="Y216" s="9">
         <v>5.28</v>
       </c>
-      <c r="Z216" s="21">
+      <c r="Z216" s="20">
         <v>4.400429751017218E-3</v>
       </c>
       <c r="AA216" s="9">
@@ -29983,7 +29983,7 @@
       <c r="S217" s="9">
         <v>0</v>
       </c>
-      <c r="T217" s="9">
+      <c r="T217" s="21">
         <v>0</v>
       </c>
       <c r="U217" s="9"/>
@@ -29995,7 +29995,7 @@
       <c r="Y217" s="9">
         <v>5.28</v>
       </c>
-      <c r="Z217" s="21">
+      <c r="Z217" s="20">
         <v>1.3397038148587694E-2</v>
       </c>
       <c r="AA217" s="9">
@@ -30111,7 +30111,7 @@
         <f t="shared" si="8"/>
         <v>98.68421052631578</v>
       </c>
-      <c r="T218" s="9">
+      <c r="T218" s="21">
         <v>15.019200682303593</v>
       </c>
       <c r="U218" s="9"/>
@@ -30123,7 +30123,7 @@
       <c r="Y218" s="9">
         <v>5.29</v>
       </c>
-      <c r="Z218" s="21">
+      <c r="Z218" s="20">
         <v>1.9592435182745959E-2</v>
       </c>
       <c r="AA218" s="9">
@@ -30239,7 +30239,7 @@
         <f t="shared" si="8"/>
         <v>93.902439024390233</v>
       </c>
-      <c r="T219" s="9">
+      <c r="T219" s="21">
         <v>12.714150856314262</v>
       </c>
       <c r="U219" s="9"/>
@@ -30251,7 +30251,7 @@
       <c r="Y219" s="9">
         <v>5.25</v>
       </c>
-      <c r="Z219" s="21">
+      <c r="Z219" s="20">
         <v>3.1056280287261088E-3</v>
       </c>
       <c r="AA219" s="9">
@@ -30368,7 +30368,7 @@
       <c r="S220" s="9">
         <v>0</v>
       </c>
-      <c r="T220" s="9">
+      <c r="T220" s="21">
         <v>0</v>
       </c>
       <c r="U220" s="9"/>
@@ -30380,7 +30380,7 @@
       <c r="Y220" s="9">
         <v>5.24</v>
       </c>
-      <c r="Z220" s="21">
+      <c r="Z220" s="20">
         <v>8.5485484090840351E-4</v>
       </c>
       <c r="AA220" s="9">
@@ -30497,7 +30497,7 @@
       <c r="S221" s="9">
         <v>0</v>
       </c>
-      <c r="T221" s="9">
+      <c r="T221" s="21">
         <v>0</v>
       </c>
       <c r="U221" s="9"/>
@@ -30509,7 +30509,7 @@
       <c r="Y221" s="9">
         <v>5.21</v>
       </c>
-      <c r="Z221" s="21">
+      <c r="Z221" s="20">
         <v>1.6406232789926442E-3</v>
       </c>
       <c r="AA221" s="9">
@@ -30626,7 +30626,7 @@
       <c r="S222" s="9">
         <v>0</v>
       </c>
-      <c r="T222" s="9">
+      <c r="T222" s="21">
         <v>0</v>
       </c>
       <c r="U222" s="9"/>
@@ -30638,7 +30638,7 @@
       <c r="Y222" s="9">
         <v>5.18</v>
       </c>
-      <c r="Z222" s="21">
+      <c r="Z222" s="20">
         <v>1.0936999404367782E-3</v>
       </c>
       <c r="AA222" s="9">
@@ -30755,7 +30755,7 @@
       <c r="S223" s="9">
         <v>0</v>
       </c>
-      <c r="T223" s="9">
+      <c r="T223" s="21">
         <v>0</v>
       </c>
       <c r="U223" s="9"/>
@@ -30767,7 +30767,7 @@
       <c r="Y223" s="9">
         <v>5.14</v>
       </c>
-      <c r="Z223" s="21">
+      <c r="Z223" s="20">
         <v>3.7153985509753825E-3</v>
       </c>
       <c r="AA223" s="9">
@@ -30885,7 +30885,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T224" s="9">
+      <c r="T224" s="21">
         <v>15.16840228220522</v>
       </c>
       <c r="U224" s="9"/>
@@ -30897,7 +30897,7 @@
       <c r="Y224" s="9">
         <v>4.8899999999999997</v>
       </c>
-      <c r="Z224" s="21">
+      <c r="Z224" s="20">
         <v>4.1618769905492669E-3</v>
       </c>
       <c r="AA224" s="9">
@@ -31015,7 +31015,7 @@
         <f t="shared" si="8"/>
         <v>94.117647058823522</v>
       </c>
-      <c r="T225" s="9">
+      <c r="T225" s="21">
         <v>15.384665763700681</v>
       </c>
       <c r="U225" s="9"/>
@@ -31027,7 +31027,7 @@
       <c r="Y225" s="9">
         <v>4.97</v>
       </c>
-      <c r="Z225" s="21">
+      <c r="Z225" s="20">
         <v>2.7334802792216418E-3</v>
       </c>
       <c r="AA225" s="9">
@@ -31145,7 +31145,7 @@
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="T226" s="9">
+      <c r="T226" s="21">
         <v>18.492212837847315</v>
       </c>
       <c r="U226" s="9"/>
@@ -31157,7 +31157,7 @@
       <c r="Y226" s="9">
         <v>5.0599999999999996</v>
       </c>
-      <c r="Z226" s="21">
+      <c r="Z226" s="20">
         <v>1.0652223979171916E-3</v>
       </c>
       <c r="AA226" s="9">
@@ -31275,7 +31275,7 @@
         <f t="shared" si="8"/>
         <v>91.666666666666657</v>
       </c>
-      <c r="T227" s="9">
+      <c r="T227" s="21">
         <v>17.865142362065253</v>
       </c>
       <c r="U227" s="9"/>
@@ -31287,7 +31287,7 @@
       <c r="Y227" s="9">
         <v>5.38</v>
       </c>
-      <c r="Z227" s="21">
+      <c r="Z227" s="20">
         <v>2.2611859532117844E-3</v>
       </c>
       <c r="AA227" s="9">
@@ -31404,7 +31404,7 @@
       <c r="S228" s="9">
         <v>0</v>
       </c>
-      <c r="T228" s="9">
+      <c r="T228" s="21">
         <v>0</v>
       </c>
       <c r="U228" s="9"/>
@@ -31416,7 +31416,7 @@
       <c r="Y228" s="9">
         <v>4.93</v>
       </c>
-      <c r="Z228" s="21">
+      <c r="Z228" s="20">
         <v>3.4902795036959593E-3</v>
       </c>
       <c r="AA228" s="9">
@@ -31533,7 +31533,7 @@
       <c r="S229" s="9">
         <v>0</v>
       </c>
-      <c r="T229" s="9">
+      <c r="T229" s="21">
         <v>0</v>
       </c>
       <c r="U229" s="9"/>
@@ -31545,7 +31545,7 @@
       <c r="Y229" s="9">
         <v>5.19</v>
       </c>
-      <c r="Z229" s="21">
+      <c r="Z229" s="20">
         <v>1.1138222169453861E-3</v>
       </c>
       <c r="AA229" s="9">
@@ -31663,7 +31663,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T230" s="9">
+      <c r="T230" s="21">
         <v>14.053381475014357</v>
       </c>
       <c r="U230" s="9"/>
@@ -31675,7 +31675,7 @@
       <c r="Y230" s="9">
         <v>5.37</v>
       </c>
-      <c r="Z230" s="21">
+      <c r="Z230" s="20">
         <v>1.5884663114938426E-3</v>
       </c>
       <c r="AA230" s="9">
@@ -31793,7 +31793,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T231" s="9">
+      <c r="T231" s="21">
         <v>14.642254764454373</v>
       </c>
       <c r="U231" s="9"/>
@@ -31805,7 +31805,7 @@
       <c r="Y231" s="9">
         <v>5.13</v>
       </c>
-      <c r="Z231" s="21">
+      <c r="Z231" s="20">
         <v>9.1580003981434795E-3</v>
       </c>
       <c r="AA231" s="9">
@@ -31922,7 +31922,7 @@
       <c r="S232" s="9">
         <v>0</v>
       </c>
-      <c r="T232" s="9">
+      <c r="T232" s="21">
         <v>0</v>
       </c>
       <c r="U232" s="9"/>
@@ -31934,7 +31934,7 @@
       <c r="Y232" s="9">
         <v>5.68</v>
       </c>
-      <c r="Z232" s="21">
+      <c r="Z232" s="20">
         <v>4.3574772821756477E-3</v>
       </c>
       <c r="AA232" s="9">
@@ -32051,7 +32051,7 @@
       <c r="S233" s="9">
         <v>0</v>
       </c>
-      <c r="T233" s="9">
+      <c r="T233" s="21">
         <v>0</v>
       </c>
       <c r="U233" s="9"/>
@@ -32063,7 +32063,7 @@
       <c r="Y233" s="9">
         <v>5.75</v>
       </c>
-      <c r="Z233" s="21">
+      <c r="Z233" s="20">
         <v>2.2527897523709199E-2</v>
       </c>
       <c r="AA233" s="9">
@@ -32181,7 +32181,7 @@
         <f t="shared" si="8"/>
         <v>86.36363636363636</v>
       </c>
-      <c r="T234" s="9">
+      <c r="T234" s="21">
         <v>18.150897828071152</v>
       </c>
       <c r="U234" s="9"/>
@@ -32193,7 +32193,7 @@
       <c r="Y234" s="9">
         <v>5.25</v>
       </c>
-      <c r="Z234" s="21">
+      <c r="Z234" s="20">
         <v>3.7555022885137139E-4</v>
       </c>
       <c r="AA234" s="9">
@@ -32311,7 +32311,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T235" s="9">
+      <c r="T235" s="21">
         <v>15.18934988133276</v>
       </c>
       <c r="U235" s="9"/>
@@ -32323,7 +32323,7 @@
       <c r="Y235" s="9">
         <v>5.69</v>
       </c>
-      <c r="Z235" s="21">
+      <c r="Z235" s="20">
         <v>9.3502299943354925E-4</v>
       </c>
       <c r="AA235" s="9">
@@ -32439,7 +32439,7 @@
         <f t="shared" si="8"/>
         <v>93.902439024390233</v>
       </c>
-      <c r="T236" s="9">
+      <c r="T236" s="21">
         <v>14.545985433023175</v>
       </c>
       <c r="U236" s="9"/>
@@ -32451,7 +32451,7 @@
       <c r="Y236" s="9">
         <v>5.46</v>
       </c>
-      <c r="Z236" s="21">
+      <c r="Z236" s="20">
         <v>1.025323703224194E-3</v>
       </c>
       <c r="AA236" s="9">
@@ -32567,7 +32567,7 @@
         <f t="shared" si="8"/>
         <v>96.25</v>
       </c>
-      <c r="T237" s="9">
+      <c r="T237" s="21">
         <v>13.443818042972405</v>
       </c>
       <c r="U237" s="9"/>
@@ -32579,7 +32579,7 @@
       <c r="Y237" s="9">
         <v>5.17</v>
       </c>
-      <c r="Z237" s="21">
+      <c r="Z237" s="20">
         <v>5.7808880472387594E-3</v>
       </c>
       <c r="AA237" s="9">
@@ -32696,7 +32696,7 @@
       <c r="S238" s="9">
         <v>0</v>
       </c>
-      <c r="T238" s="9">
+      <c r="T238" s="21">
         <v>0</v>
       </c>
       <c r="U238" s="9"/>
@@ -32708,7 +32708,7 @@
       <c r="Y238" s="9">
         <v>5.45</v>
       </c>
-      <c r="Z238" s="21">
+      <c r="Z238" s="20">
         <v>7.947294581025549E-4</v>
       </c>
       <c r="AA238" s="9">
@@ -32825,7 +32825,7 @@
       <c r="S239" s="9">
         <v>0</v>
       </c>
-      <c r="T239" s="9">
+      <c r="T239" s="21">
         <v>0</v>
       </c>
       <c r="U239" s="9"/>
@@ -32837,7 +32837,7 @@
       <c r="Y239" s="9">
         <v>5.78</v>
       </c>
-      <c r="Z239" s="21">
+      <c r="Z239" s="20">
         <v>4.5011756067261948E-4</v>
       </c>
       <c r="AA239" s="9">
@@ -32953,7 +32953,7 @@
         <f t="shared" si="8"/>
         <v>84.615384615384613</v>
       </c>
-      <c r="T240" s="9">
+      <c r="T240" s="21">
         <v>14.341084641372788</v>
       </c>
       <c r="U240" s="9"/>
@@ -32965,7 +32965,7 @@
       <c r="Y240" s="9">
         <v>5.67</v>
       </c>
-      <c r="Z240" s="21">
+      <c r="Z240" s="20">
         <v>2.1938501723845899E-3</v>
       </c>
       <c r="AA240" s="9">
@@ -33081,7 +33081,7 @@
         <f t="shared" si="8"/>
         <v>91.139240506329116</v>
       </c>
-      <c r="T241" s="9">
+      <c r="T241" s="21">
         <v>15.847400168980595</v>
       </c>
       <c r="U241" s="9"/>
@@ -33093,7 +33093,7 @@
       <c r="Y241" s="9">
         <v>5.62</v>
       </c>
-      <c r="Z241" s="21">
+      <c r="Z241" s="20">
         <v>2.9518632169576063E-3</v>
       </c>
       <c r="AA241" s="9">
@@ -33211,7 +33211,7 @@
         <f t="shared" si="8"/>
         <v>82.089552238805979</v>
       </c>
-      <c r="T242" s="9">
+      <c r="T242" s="21">
         <v>11.180753524551239</v>
       </c>
       <c r="U242" s="9"/>
@@ -33339,7 +33339,7 @@
         <f t="shared" si="8"/>
         <v>96.875</v>
       </c>
-      <c r="T243" s="9">
+      <c r="T243" s="21">
         <v>12.337989604002022</v>
       </c>
       <c r="U243" s="9"/>
@@ -33466,7 +33466,7 @@
       <c r="S244" s="9">
         <v>0</v>
       </c>
-      <c r="T244" s="9">
+      <c r="T244" s="21">
         <v>0</v>
       </c>
       <c r="U244" s="9"/>
@@ -33593,7 +33593,7 @@
       <c r="S245" s="9">
         <v>0</v>
       </c>
-      <c r="T245" s="9">
+      <c r="T245" s="21">
         <v>0</v>
       </c>
       <c r="U245" s="9"/>
@@ -33719,7 +33719,7 @@
         <f t="shared" si="8"/>
         <v>89.795918367346943</v>
       </c>
-      <c r="T246" s="9">
+      <c r="T246" s="21">
         <v>11.760401753664636</v>
       </c>
       <c r="U246" s="9"/>
@@ -33845,7 +33845,7 @@
         <f t="shared" si="8"/>
         <v>90.361445783132538</v>
       </c>
-      <c r="T247" s="9">
+      <c r="T247" s="21">
         <v>13.722607647504102</v>
       </c>
       <c r="U247" s="9"/>
@@ -33972,7 +33972,7 @@
       <c r="S248" s="9">
         <v>0</v>
       </c>
-      <c r="T248" s="9">
+      <c r="T248" s="21">
         <v>0</v>
       </c>
       <c r="U248" s="9"/>
@@ -34099,7 +34099,7 @@
       <c r="S249" s="9">
         <v>0</v>
       </c>
-      <c r="T249" s="9">
+      <c r="T249" s="21">
         <v>0</v>
       </c>
       <c r="U249" s="9"/>
@@ -34227,7 +34227,7 @@
         <f t="shared" si="8"/>
         <v>90.697674418604649</v>
       </c>
-      <c r="T250" s="9">
+      <c r="T250" s="21">
         <v>13.791701138349312</v>
       </c>
       <c r="U250" s="9"/>
@@ -34355,7 +34355,7 @@
         <f t="shared" si="8"/>
         <v>93.478260869565219</v>
       </c>
-      <c r="T251" s="9">
+      <c r="T251" s="21">
         <v>13.085304234207564</v>
       </c>
       <c r="U251" s="9"/>
@@ -34483,7 +34483,7 @@
         <f t="shared" si="8"/>
         <v>94.285714285714278</v>
       </c>
-      <c r="T252" s="9">
+      <c r="T252" s="21">
         <v>13.568186262788499</v>
       </c>
       <c r="U252" s="9"/>
@@ -34611,7 +34611,7 @@
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="T253" s="9">
+      <c r="T253" s="21">
         <v>11.969724960055268</v>
       </c>
       <c r="U253" s="9"/>
@@ -34739,7 +34739,7 @@
         <f t="shared" si="8"/>
         <v>89.361702127659569</v>
       </c>
-      <c r="T254" s="9">
+      <c r="T254" s="21">
         <v>12.618616594417849</v>
       </c>
       <c r="U254" s="9"/>
@@ -34867,7 +34867,7 @@
         <f t="shared" si="8"/>
         <v>97.674418604651152</v>
       </c>
-      <c r="T255" s="9">
+      <c r="T255" s="21">
         <v>12.936705978948659</v>
       </c>
       <c r="U255" s="9"/>
@@ -34994,7 +34994,7 @@
       <c r="S256" s="9">
         <v>0</v>
       </c>
-      <c r="T256" s="9">
+      <c r="T256" s="21">
         <v>0</v>
       </c>
       <c r="U256" s="9"/>
@@ -35121,7 +35121,7 @@
       <c r="S257" s="9">
         <v>0</v>
       </c>
-      <c r="T257" s="9">
+      <c r="T257" s="21">
         <v>0</v>
       </c>
       <c r="U257" s="9"/>
@@ -35247,7 +35247,7 @@
         <f t="shared" si="8"/>
         <v>98.68421052631578</v>
       </c>
-      <c r="T258" s="9">
+      <c r="T258" s="21">
         <v>15.019200682303593</v>
       </c>
       <c r="U258" s="9"/>
@@ -35267,7 +35267,7 @@
         <v>3.4223470687866211</v>
       </c>
       <c r="AC258" s="13">
-        <f t="shared" ref="AC258:AC321" si="9">(AB258)*X258*10</f>
+        <f t="shared" ref="AC258:AC281" si="9">(AB258)*X258*10</f>
         <v>12.58693459221581</v>
       </c>
       <c r="AD258" s="9">
@@ -35373,7 +35373,7 @@
         <f t="shared" si="8"/>
         <v>93.902439024390233</v>
       </c>
-      <c r="T259" s="9">
+      <c r="T259" s="21">
         <v>12.714150856314262</v>
       </c>
       <c r="U259" s="9"/>
@@ -35500,7 +35500,7 @@
       <c r="S260" s="9">
         <v>0</v>
       </c>
-      <c r="T260" s="9">
+      <c r="T260" s="21">
         <v>0</v>
       </c>
       <c r="U260" s="9"/>
@@ -35627,7 +35627,7 @@
       <c r="S261" s="9">
         <v>0</v>
       </c>
-      <c r="T261" s="9">
+      <c r="T261" s="21">
         <v>0</v>
       </c>
       <c r="U261" s="9"/>
@@ -35754,7 +35754,7 @@
       <c r="S262" s="9">
         <v>0</v>
       </c>
-      <c r="T262" s="9">
+      <c r="T262" s="21">
         <v>0</v>
       </c>
       <c r="U262" s="9"/>
@@ -35881,7 +35881,7 @@
       <c r="S263" s="9">
         <v>0</v>
       </c>
-      <c r="T263" s="9">
+      <c r="T263" s="21">
         <v>0</v>
       </c>
       <c r="U263" s="9"/>
@@ -36009,7 +36009,7 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="T264" s="9">
+      <c r="T264" s="21">
         <v>15.16840228220522</v>
       </c>
       <c r="U264" s="9"/>
@@ -36137,7 +36137,7 @@
         <f t="shared" si="8"/>
         <v>94.117647058823522</v>
       </c>
-      <c r="T265" s="9">
+      <c r="T265" s="21">
         <v>15.384665763700681</v>
       </c>
       <c r="U265" s="9"/>
@@ -36265,7 +36265,7 @@
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="T266" s="9">
+      <c r="T266" s="21">
         <v>18.492212837847315</v>
       </c>
       <c r="U266" s="9"/>
@@ -36393,7 +36393,7 @@
         <f t="shared" ref="S267:S281" si="11">(Q267/N267)*100</f>
         <v>91.666666666666657</v>
       </c>
-      <c r="T267" s="9">
+      <c r="T267" s="21">
         <v>17.865142362065253</v>
       </c>
       <c r="U267" s="9"/>
@@ -36520,7 +36520,7 @@
       <c r="S268" s="9">
         <v>0</v>
       </c>
-      <c r="T268" s="9">
+      <c r="T268" s="21">
         <v>0</v>
       </c>
       <c r="U268" s="9"/>
@@ -36647,7 +36647,7 @@
       <c r="S269" s="9">
         <v>0</v>
       </c>
-      <c r="T269" s="9">
+      <c r="T269" s="21">
         <v>0</v>
       </c>
       <c r="U269" s="9"/>
@@ -36775,7 +36775,7 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T270" s="9">
+      <c r="T270" s="21">
         <v>14.053381475014357</v>
       </c>
       <c r="U270" s="9"/>
@@ -36903,7 +36903,7 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T271" s="9">
+      <c r="T271" s="21">
         <v>14.642254764454373</v>
       </c>
       <c r="U271" s="9"/>
@@ -37030,7 +37030,7 @@
       <c r="S272" s="9">
         <v>0</v>
       </c>
-      <c r="T272" s="9">
+      <c r="T272" s="21">
         <v>0</v>
       </c>
       <c r="U272" s="9"/>
@@ -37157,7 +37157,7 @@
       <c r="S273" s="9">
         <v>0</v>
       </c>
-      <c r="T273" s="9">
+      <c r="T273" s="21">
         <v>0</v>
       </c>
       <c r="U273" s="9"/>
@@ -37285,7 +37285,7 @@
         <f t="shared" si="11"/>
         <v>86.36363636363636</v>
       </c>
-      <c r="T274" s="9">
+      <c r="T274" s="21">
         <v>18.150897828071152</v>
       </c>
       <c r="U274" s="9"/>
@@ -37413,7 +37413,7 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="T275" s="9">
+      <c r="T275" s="21">
         <v>15.18934988133276</v>
       </c>
       <c r="U275" s="9"/>
@@ -37539,7 +37539,7 @@
         <f t="shared" si="11"/>
         <v>93.902439024390233</v>
       </c>
-      <c r="T276" s="9">
+      <c r="T276" s="21">
         <v>14.545985433023175</v>
       </c>
       <c r="U276" s="9"/>
@@ -37665,7 +37665,7 @@
         <f t="shared" si="11"/>
         <v>96.25</v>
       </c>
-      <c r="T277" s="9">
+      <c r="T277" s="21">
         <v>13.443818042972405</v>
       </c>
       <c r="U277" s="9"/>
@@ -37792,7 +37792,7 @@
       <c r="S278" s="9">
         <v>0</v>
       </c>
-      <c r="T278" s="9">
+      <c r="T278" s="21">
         <v>0</v>
       </c>
       <c r="U278" s="9"/>
@@ -37919,7 +37919,7 @@
       <c r="S279" s="9">
         <v>0</v>
       </c>
-      <c r="T279" s="9">
+      <c r="T279" s="21">
         <v>0</v>
       </c>
       <c r="U279" s="9"/>
@@ -38045,7 +38045,7 @@
         <f t="shared" si="11"/>
         <v>84.615384615384613</v>
       </c>
-      <c r="T280" s="9">
+      <c r="T280" s="21">
         <v>14.341084641372788</v>
       </c>
       <c r="U280" s="9"/>
@@ -38171,7 +38171,7 @@
         <f t="shared" si="11"/>
         <v>91.139240506329116</v>
       </c>
-      <c r="T281" s="9">
+      <c r="T281" s="21">
         <v>15.847400168980595</v>
       </c>
       <c r="U281" s="9"/>
